--- a/resultados/tabelas_final/resultado_MP_final.xlsx
+++ b/resultados/tabelas_final/resultado_MP_final.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J159"/>
+  <dimension ref="A1:I159"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,40 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 0</t>
+          <t>Matriz</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Matriz</t>
+          <t>Método</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Método</t>
+          <t>Autovalor</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Autovalor</t>
+          <t>Iterações</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Iterações</t>
+          <t>Tempo</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Tempo</t>
+          <t>Ordem</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Ordem</t>
+          <t>Campo</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Campo</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Simetria</t>
         </is>
@@ -484,37 +479,34 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
-        <v>0</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>bcspwr02</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>bcspwr02.mtx</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>MP</t>
-        </is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>4.308258605005528</v>
       </c>
       <c r="E2" t="n">
-        <v>4.308258605005528</v>
+        <v>40</v>
       </c>
       <c r="F2" t="n">
-        <v>40</v>
+        <v>0.003359317779541016</v>
       </c>
       <c r="G2" t="n">
-        <v>0.003359317779541016</v>
-      </c>
-      <c r="H2" t="n">
         <v>49</v>
       </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>pattern</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr">
-        <is>
-          <t>pattern</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -524,37 +516,34 @@
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
-        <v>1</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>bcspwr02</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>bcspwr02.mtx</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>MP_Aitken</t>
-        </is>
+          <t>MP_Aitken</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>4.308461254391954</v>
       </c>
       <c r="E3" t="n">
-        <v>4.308461254391954</v>
+        <v>24</v>
       </c>
       <c r="F3" t="n">
-        <v>24</v>
+        <v>0.0002951622009277344</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0002951622009277344</v>
-      </c>
-      <c r="H3" t="n">
         <v>49</v>
       </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>pattern</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr">
-        <is>
-          <t>pattern</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -564,37 +553,34 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
-        <v>2</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>bcspwr04</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>bcspwr04.mtx</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>MP</t>
-        </is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>10.11425564616074</v>
       </c>
       <c r="E4" t="n">
-        <v>10.11425564616074</v>
+        <v>30</v>
       </c>
       <c r="F4" t="n">
-        <v>30</v>
+        <v>0.001196861267089844</v>
       </c>
       <c r="G4" t="n">
-        <v>0.001196861267089844</v>
-      </c>
-      <c r="H4" t="n">
         <v>274</v>
       </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>pattern</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr">
-        <is>
-          <t>pattern</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -604,37 +590,34 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
-        <v>3</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>bcspwr04</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>bcspwr04.mtx</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>MP_Aitken</t>
-        </is>
+          <t>MP_Aitken</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>10.11401361716994</v>
       </c>
       <c r="E5" t="n">
-        <v>10.11401361716994</v>
+        <v>15</v>
       </c>
       <c r="F5" t="n">
-        <v>15</v>
+        <v>0.0003507137298583984</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0003507137298583984</v>
-      </c>
-      <c r="H5" t="n">
         <v>274</v>
       </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>pattern</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr">
-        <is>
-          <t>pattern</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -644,37 +627,34 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
-        <v>4</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>38_bus</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>38_bus.mtx</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>MP</t>
-        </is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>30115.82629984464</v>
       </c>
       <c r="E6" t="n">
-        <v>30115.82629984464</v>
+        <v>22</v>
       </c>
       <c r="F6" t="n">
-        <v>22</v>
+        <v>0.004564523696899414</v>
       </c>
       <c r="G6" t="n">
-        <v>0.004564523696899414</v>
-      </c>
-      <c r="H6" t="n">
         <v>1138</v>
       </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -684,37 +664,34 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
-        <v>5</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>38_bus</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>38_bus.mtx</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>MP_Aitken</t>
-        </is>
+          <t>MP_Aitken</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>30114.18326043027</v>
       </c>
       <c r="E7" t="n">
-        <v>30114.18326043027</v>
+        <v>14</v>
       </c>
       <c r="F7" t="n">
-        <v>14</v>
+        <v>0.003257036209106445</v>
       </c>
       <c r="G7" t="n">
-        <v>0.003257036209106445</v>
-      </c>
-      <c r="H7" t="n">
         <v>1138</v>
       </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -724,37 +701,34 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
-        <v>6</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>494_bus</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>494_bus.mtx</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>MP</t>
-        </is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>2220.967903929713</v>
       </c>
       <c r="E8" t="n">
-        <v>2220.967903929713</v>
+        <v>4</v>
       </c>
       <c r="F8" t="n">
-        <v>4</v>
+        <v>0.0002846717834472656</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0002846717834472656</v>
-      </c>
-      <c r="H8" t="n">
         <v>494</v>
       </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -764,37 +738,34 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="n">
-        <v>7</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>494_bus</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>494_bus.mtx</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>MP_Aitken</t>
-        </is>
+          <t>MP_Aitken</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>2220.970984428201</v>
       </c>
       <c r="E9" t="n">
-        <v>2220.970984428201</v>
+        <v>4</v>
       </c>
       <c r="F9" t="n">
-        <v>4</v>
+        <v>0.0002911090850830078</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0002911090850830078</v>
-      </c>
-      <c r="H9" t="n">
         <v>494</v>
       </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -804,37 +775,34 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="n">
-        <v>8</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>685_bus</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>685_bus.mtx</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>MP</t>
-        </is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>26186.48629082991</v>
       </c>
       <c r="E10" t="n">
-        <v>26186.48629082991</v>
+        <v>4</v>
       </c>
       <c r="F10" t="n">
-        <v>4</v>
+        <v>0.0005176067352294922</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0005176067352294922</v>
-      </c>
-      <c r="H10" t="n">
         <v>685</v>
       </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -844,37 +812,34 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="n">
-        <v>9</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>685_bus</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>685_bus.mtx</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>MP_Aitken</t>
-        </is>
+          <t>MP_Aitken</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>26186.48629088882</v>
       </c>
       <c r="E11" t="n">
-        <v>26186.48629088882</v>
+        <v>4</v>
       </c>
       <c r="F11" t="n">
-        <v>4</v>
+        <v>0.0005249977111816406</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0005249977111816406</v>
-      </c>
-      <c r="H11" t="n">
         <v>685</v>
       </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -884,37 +849,34 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="n">
-        <v>10</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>c130</t>
+        </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>c130.mtx</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>MP</t>
-        </is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>2.366980478285793</v>
       </c>
       <c r="E12" t="n">
-        <v>2.366980478285793</v>
+        <v>113</v>
       </c>
       <c r="F12" t="n">
-        <v>113</v>
+        <v>0.00165104866027832</v>
       </c>
       <c r="G12" t="n">
-        <v>0.00165104866027832</v>
-      </c>
-      <c r="H12" t="n">
         <v>130</v>
       </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
         <is>
           <t>general</t>
         </is>
@@ -924,37 +886,34 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="n">
-        <v>11</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>c130</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>c130.mtx</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>MP_Aitken</t>
-        </is>
+          <t>MP_Aitken</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>2.370733342517338</v>
       </c>
       <c r="E13" t="n">
-        <v>2.370733342517338</v>
+        <v>39</v>
       </c>
       <c r="F13" t="n">
-        <v>39</v>
+        <v>0.000675201416015625</v>
       </c>
       <c r="G13" t="n">
-        <v>0.000675201416015625</v>
-      </c>
-      <c r="H13" t="n">
         <v>130</v>
       </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
         <is>
           <t>general</t>
         </is>
@@ -964,37 +923,34 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="n">
-        <v>12</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>662_bus</t>
+        </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>662_bus.mtx</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>MP</t>
-        </is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1422.994613068716</v>
       </c>
       <c r="E14" t="n">
-        <v>1422.994613068716</v>
+        <v>4</v>
       </c>
       <c r="F14" t="n">
-        <v>4</v>
+        <v>0.0003261566162109375</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0003261566162109375</v>
-      </c>
-      <c r="H14" t="n">
         <v>662</v>
       </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -1004,37 +960,34 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="n">
-        <v>13</v>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>662_bus</t>
+        </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>662_bus.mtx</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>MP_Aitken</t>
-        </is>
+          <t>MP_Aitken</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1422.994613069662</v>
       </c>
       <c r="E15" t="n">
-        <v>1422.994613069662</v>
+        <v>4</v>
       </c>
       <c r="F15" t="n">
-        <v>4</v>
+        <v>0.0003485679626464844</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0003485679626464844</v>
-      </c>
-      <c r="H15" t="n">
         <v>662</v>
       </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -1044,37 +997,34 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="n">
-        <v>14</v>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>h292</t>
+        </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>h292.mtx</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>MP</t>
-        </is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>9.151774331566605</v>
       </c>
       <c r="E16" t="n">
-        <v>9.151774331566605</v>
+        <v>45</v>
       </c>
       <c r="F16" t="n">
-        <v>45</v>
+        <v>0.001053810119628906</v>
       </c>
       <c r="G16" t="n">
-        <v>0.001053810119628906</v>
-      </c>
-      <c r="H16" t="n">
         <v>292</v>
       </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>pattern</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr">
-        <is>
-          <t>pattern</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -1084,37 +1034,34 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="n">
-        <v>15</v>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>h292</t>
+        </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>h292.mtx</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>MP_Aitken</t>
-        </is>
+          <t>MP_Aitken</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>9.152249584058874</v>
       </c>
       <c r="E17" t="n">
-        <v>9.152249584058874</v>
+        <v>23</v>
       </c>
       <c r="F17" t="n">
-        <v>23</v>
+        <v>0.0005731582641601562</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0005731582641601562</v>
-      </c>
-      <c r="H17" t="n">
         <v>292</v>
       </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>pattern</t>
+        </is>
+      </c>
       <c r="I17" t="inlineStr">
-        <is>
-          <t>pattern</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -1124,37 +1071,34 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="n">
-        <v>16</v>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>bcspwr03</t>
+        </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>bcspwr03.mtx</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>MP</t>
-        </is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>5.104674213788415</v>
       </c>
       <c r="E18" t="n">
-        <v>5.104674213788415</v>
+        <v>35</v>
       </c>
       <c r="F18" t="n">
-        <v>35</v>
+        <v>0.0007205009460449219</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0007205009460449219</v>
-      </c>
-      <c r="H18" t="n">
         <v>118</v>
       </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>pattern</t>
+        </is>
+      </c>
       <c r="I18" t="inlineStr">
-        <is>
-          <t>pattern</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -1164,37 +1108,34 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="n">
-        <v>17</v>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>bcspwr03</t>
+        </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>bcspwr03.mtx</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>MP_Aitken</t>
-        </is>
+          <t>MP_Aitken</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>5.104142633099601</v>
       </c>
       <c r="E19" t="n">
-        <v>5.104142633099601</v>
+        <v>11</v>
       </c>
       <c r="F19" t="n">
-        <v>11</v>
+        <v>0.0002942085266113281</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0002942085266113281</v>
-      </c>
-      <c r="H19" t="n">
         <v>118</v>
       </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>pattern</t>
+        </is>
+      </c>
       <c r="I19" t="inlineStr">
-        <is>
-          <t>pattern</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -1204,37 +1145,34 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="n">
-        <v>18</v>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>h85</t>
+        </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>h85.mtx</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>MP</t>
-        </is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>6.721075798530548</v>
       </c>
       <c r="E20" t="n">
-        <v>6.721075798530548</v>
+        <v>27</v>
       </c>
       <c r="F20" t="n">
-        <v>27</v>
+        <v>0.0005309581756591797</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0005309581756591797</v>
-      </c>
-      <c r="H20" t="n">
         <v>85</v>
       </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>pattern</t>
+        </is>
+      </c>
       <c r="I20" t="inlineStr">
-        <is>
-          <t>pattern</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -1244,37 +1182,34 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="n">
-        <v>19</v>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>h85</t>
+        </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>h85.mtx</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>MP_Aitken</t>
-        </is>
+          <t>MP_Aitken</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>6.721128139935032</v>
       </c>
       <c r="E21" t="n">
-        <v>6.721128139935032</v>
+        <v>18</v>
       </c>
       <c r="F21" t="n">
-        <v>18</v>
+        <v>0.0002286434173583984</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0002286434173583984</v>
-      </c>
-      <c r="H21" t="n">
         <v>85</v>
       </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>pattern</t>
+        </is>
+      </c>
       <c r="I21" t="inlineStr">
-        <is>
-          <t>pattern</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -1284,37 +1219,34 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="n">
-        <v>0</v>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>bcspwr05</t>
+        </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>bcspwr05.mtx</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>MP</t>
-        </is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>5.177624323644659</v>
       </c>
       <c r="E22" t="n">
-        <v>5.177624323644659</v>
+        <v>81</v>
       </c>
       <c r="F22" t="n">
-        <v>81</v>
+        <v>0.02802085876464844</v>
       </c>
       <c r="G22" t="n">
-        <v>0.02802085876464844</v>
-      </c>
-      <c r="H22" t="n">
         <v>443</v>
       </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>pattern</t>
+        </is>
+      </c>
       <c r="I22" t="inlineStr">
-        <is>
-          <t>pattern</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -1324,37 +1256,34 @@
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="n">
-        <v>1</v>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>bcspwr05</t>
+        </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>bcspwr05.mtx</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>MP_Aitken</t>
-        </is>
+          <t>MP_Aitken</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>5.179112393033175</v>
       </c>
       <c r="E23" t="n">
-        <v>5.179112393033175</v>
+        <v>34</v>
       </c>
       <c r="F23" t="n">
-        <v>34</v>
+        <v>0.001202106475830078</v>
       </c>
       <c r="G23" t="n">
-        <v>0.001202106475830078</v>
-      </c>
-      <c r="H23" t="n">
         <v>443</v>
       </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>pattern</t>
+        </is>
+      </c>
       <c r="I23" t="inlineStr">
-        <is>
-          <t>pattern</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -1364,37 +1293,34 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="n">
-        <v>2</v>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>bcsstk03</t>
+        </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>bcsstk03.mtx</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>MP</t>
-        </is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>199732738576.2932</v>
       </c>
       <c r="E24" t="n">
-        <v>199732738576.2932</v>
+        <v>25</v>
       </c>
       <c r="F24" t="n">
-        <v>25</v>
+        <v>0.000461578369140625</v>
       </c>
       <c r="G24" t="n">
-        <v>0.000461578369140625</v>
-      </c>
-      <c r="H24" t="n">
         <v>112</v>
       </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
       <c r="I24" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -1404,37 +1330,34 @@
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="n">
-        <v>3</v>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>bcsstk03</t>
+        </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>bcsstk03.mtx</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>MP_Aitken</t>
-        </is>
+          <t>MP_Aitken</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>199734791972.886</v>
       </c>
       <c r="E25" t="n">
-        <v>199734791972.886</v>
+        <v>20</v>
       </c>
       <c r="F25" t="n">
-        <v>20</v>
+        <v>0.0004107952117919922</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0004107952117919922</v>
-      </c>
-      <c r="H25" t="n">
         <v>112</v>
       </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
       <c r="I25" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -1444,37 +1367,34 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="n">
-        <v>4</v>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>bcspwr07</t>
+        </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>bcspwr07.mtx</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>MP</t>
-        </is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>5.664183085589989</v>
       </c>
       <c r="E26" t="n">
-        <v>5.664183085589989</v>
+        <v>99</v>
       </c>
       <c r="F26" t="n">
-        <v>99</v>
+        <v>0.08178949356079102</v>
       </c>
       <c r="G26" t="n">
-        <v>0.08178949356079102</v>
-      </c>
-      <c r="H26" t="n">
         <v>1612</v>
       </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>pattern</t>
+        </is>
+      </c>
       <c r="I26" t="inlineStr">
-        <is>
-          <t>pattern</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -1484,37 +1404,34 @@
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="n">
-        <v>5</v>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>bcspwr07</t>
+        </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>bcspwr07.mtx</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>MP_Aitken</t>
-        </is>
+          <t>MP_Aitken</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>5.667241609924945</v>
       </c>
       <c r="E27" t="n">
-        <v>5.667241609924945</v>
+        <v>42</v>
       </c>
       <c r="F27" t="n">
-        <v>42</v>
+        <v>0.03520965576171875</v>
       </c>
       <c r="G27" t="n">
-        <v>0.03520965576171875</v>
-      </c>
-      <c r="H27" t="n">
         <v>1612</v>
       </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>pattern</t>
+        </is>
+      </c>
       <c r="I27" t="inlineStr">
-        <is>
-          <t>pattern</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -1524,37 +1441,34 @@
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="n">
-        <v>6</v>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>bcsstk05</t>
+        </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>bcsstk05.mtx</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>MP</t>
-        </is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>6197043.861659037</v>
       </c>
       <c r="E28" t="n">
-        <v>6197043.861659037</v>
+        <v>38</v>
       </c>
       <c r="F28" t="n">
-        <v>38</v>
+        <v>0.00060272216796875</v>
       </c>
       <c r="G28" t="n">
-        <v>0.00060272216796875</v>
-      </c>
-      <c r="H28" t="n">
         <v>153</v>
       </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
       <c r="I28" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -1564,37 +1478,34 @@
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="n">
-        <v>7</v>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>bcsstk05</t>
+        </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>bcsstk05.mtx</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>MP_Aitken</t>
-        </is>
+          <t>MP_Aitken</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>6196986.835041617</v>
       </c>
       <c r="E29" t="n">
-        <v>6196986.835041617</v>
+        <v>27</v>
       </c>
       <c r="F29" t="n">
-        <v>27</v>
+        <v>0.0004379749298095703</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0004379749298095703</v>
-      </c>
-      <c r="H29" t="n">
         <v>153</v>
       </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
       <c r="I29" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -1604,37 +1515,34 @@
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="n">
-        <v>8</v>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>bcspwr06</t>
+        </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>bcspwr06.mtx</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>MP</t>
-        </is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>5.618009280534263</v>
       </c>
       <c r="E30" t="n">
-        <v>5.618009280534263</v>
+        <v>124</v>
       </c>
       <c r="F30" t="n">
-        <v>124</v>
+        <v>0.07865357398986816</v>
       </c>
       <c r="G30" t="n">
-        <v>0.07865357398986816</v>
-      </c>
-      <c r="H30" t="n">
         <v>1454</v>
       </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>pattern</t>
+        </is>
+      </c>
       <c r="I30" t="inlineStr">
-        <is>
-          <t>pattern</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -1644,37 +1552,34 @@
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="n">
-        <v>9</v>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>bcspwr06</t>
+        </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>bcspwr06.mtx</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>MP_Aitken</t>
-        </is>
+          <t>MP_Aitken</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>5.622463254476138</v>
       </c>
       <c r="E31" t="n">
-        <v>5.622463254476138</v>
+        <v>49</v>
       </c>
       <c r="F31" t="n">
-        <v>49</v>
+        <v>0.03091955184936523</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03091955184936523</v>
-      </c>
-      <c r="H31" t="n">
         <v>1454</v>
       </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>pattern</t>
+        </is>
+      </c>
       <c r="I31" t="inlineStr">
-        <is>
-          <t>pattern</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -1684,37 +1589,34 @@
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="n">
-        <v>10</v>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>bcsstk01</t>
+        </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>bcsstk01.mtx</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>MP</t>
-        </is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>3014181127.26153</v>
       </c>
       <c r="E32" t="n">
-        <v>3014181127.26153</v>
+        <v>134</v>
       </c>
       <c r="F32" t="n">
-        <v>134</v>
+        <v>0.00269007682800293</v>
       </c>
       <c r="G32" t="n">
-        <v>0.00269007682800293</v>
-      </c>
-      <c r="H32" t="n">
         <v>48</v>
       </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
       <c r="I32" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -1724,37 +1626,34 @@
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="n">
-        <v>11</v>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>bcsstk01</t>
+        </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>bcsstk01.mtx</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>MP_Aitken</t>
-        </is>
+          <t>MP_Aitken</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>3015647293.232991</v>
       </c>
       <c r="E33" t="n">
-        <v>3015647293.232991</v>
+        <v>85</v>
       </c>
       <c r="F33" t="n">
-        <v>85</v>
+        <v>0.0009474754333496094</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0009474754333496094</v>
-      </c>
-      <c r="H33" t="n">
         <v>48</v>
       </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
       <c r="I33" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -1764,37 +1663,34 @@
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="n">
-        <v>12</v>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>bcspwr10</t>
+        </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>bcspwr10.mtx</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>MP</t>
-        </is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>6.809359881800338</v>
       </c>
       <c r="E34" t="n">
-        <v>6.809359881800338</v>
+        <v>186</v>
       </c>
       <c r="F34" t="n">
-        <v>186</v>
+        <v>2.383480072021484</v>
       </c>
       <c r="G34" t="n">
-        <v>2.383480072021484</v>
-      </c>
-      <c r="H34" t="n">
         <v>5300</v>
       </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>pattern</t>
+        </is>
+      </c>
       <c r="I34" t="inlineStr">
-        <is>
-          <t>pattern</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -1804,37 +1700,34 @@
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="n">
-        <v>13</v>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>bcspwr10</t>
+        </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>bcspwr10.mtx</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>MP_Aitken</t>
-        </is>
+          <t>MP_Aitken</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>6.836792424603274</v>
       </c>
       <c r="E35" t="n">
-        <v>6.836792424603274</v>
+        <v>81</v>
       </c>
       <c r="F35" t="n">
-        <v>81</v>
+        <v>0.9942524433135986</v>
       </c>
       <c r="G35" t="n">
-        <v>0.9942524433135986</v>
-      </c>
-      <c r="H35" t="n">
         <v>5300</v>
       </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>pattern</t>
+        </is>
+      </c>
       <c r="I35" t="inlineStr">
-        <is>
-          <t>pattern</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -1844,37 +1737,34 @@
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="n">
-        <v>14</v>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>bcspwr08</t>
+        </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>bcspwr08.mtx</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>MP</t>
-        </is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>5.783741344069723</v>
       </c>
       <c r="E36" t="n">
-        <v>5.783741344069723</v>
+        <v>152</v>
       </c>
       <c r="F36" t="n">
-        <v>152</v>
+        <v>0.1690666675567627</v>
       </c>
       <c r="G36" t="n">
-        <v>0.1690666675567627</v>
-      </c>
-      <c r="H36" t="n">
         <v>1624</v>
       </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>pattern</t>
+        </is>
+      </c>
       <c r="I36" t="inlineStr">
-        <is>
-          <t>pattern</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -1884,37 +1774,34 @@
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="n">
-        <v>15</v>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>bcspwr08</t>
+        </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>bcspwr08.mtx</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>MP_Aitken</t>
-        </is>
+          <t>MP_Aitken</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>5.794950776491883</v>
       </c>
       <c r="E37" t="n">
-        <v>5.794950776491883</v>
+        <v>57</v>
       </c>
       <c r="F37" t="n">
-        <v>57</v>
+        <v>0.06436491012573242</v>
       </c>
       <c r="G37" t="n">
-        <v>0.06436491012573242</v>
-      </c>
-      <c r="H37" t="n">
         <v>1624</v>
       </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>pattern</t>
+        </is>
+      </c>
       <c r="I37" t="inlineStr">
-        <is>
-          <t>pattern</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -1924,37 +1811,34 @@
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="n">
-        <v>16</v>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>bcsstk02</t>
+        </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>bcsstk02.mtx</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>MP</t>
-        </is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>18225.28861825787</v>
       </c>
       <c r="E38" t="n">
-        <v>18225.28861825787</v>
+        <v>28</v>
       </c>
       <c r="F38" t="n">
-        <v>28</v>
+        <v>0.0006778240203857422</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0006778240203857422</v>
-      </c>
-      <c r="H38" t="n">
         <v>66</v>
       </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
       <c r="I38" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -1964,37 +1848,34 @@
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>bcsstk02</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>MP_Aitken</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>18224.71635802562</v>
+      </c>
+      <c r="E39" t="n">
         <v>17</v>
       </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>bcsstk02.mtx</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>MP_Aitken</t>
-        </is>
-      </c>
-      <c r="E39" t="n">
-        <v>18224.71635802562</v>
-      </c>
       <c r="F39" t="n">
-        <v>17</v>
+        <v>0.0004024505615234375</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0004024505615234375</v>
-      </c>
-      <c r="H39" t="n">
         <v>66</v>
       </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
       <c r="I39" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -2004,37 +1885,34 @@
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>bcsstk04</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>9549224.597917093</v>
+      </c>
+      <c r="E40" t="n">
         <v>18</v>
       </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>bcsstk04.mtx</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>MP</t>
-        </is>
-      </c>
-      <c r="E40" t="n">
-        <v>9549224.597917093</v>
-      </c>
       <c r="F40" t="n">
-        <v>18</v>
+        <v>0.0004055500030517578</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0004055500030517578</v>
-      </c>
-      <c r="H40" t="n">
         <v>132</v>
       </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
       <c r="I40" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -2044,37 +1922,34 @@
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="n">
-        <v>19</v>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>bcsstk04</t>
+        </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>bcsstk04.mtx</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>MP_Aitken</t>
-        </is>
+          <t>MP_Aitken</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>9549371.073998552</v>
       </c>
       <c r="E41" t="n">
-        <v>9549371.073998552</v>
+        <v>14</v>
       </c>
       <c r="F41" t="n">
-        <v>14</v>
+        <v>0.0002424716949462891</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0002424716949462891</v>
-      </c>
-      <c r="H41" t="n">
         <v>132</v>
       </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
       <c r="I41" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -2084,37 +1959,34 @@
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="n">
-        <v>0</v>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>bcsstk15</t>
+        </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>bcsstk15.mtx</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>MP</t>
-        </is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>6537666522.476533</v>
       </c>
       <c r="E42" t="n">
-        <v>6537666522.476533</v>
+        <v>79</v>
       </c>
       <c r="F42" t="n">
-        <v>79</v>
+        <v>0.6850919723510742</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6850919723510742</v>
-      </c>
-      <c r="H42" t="n">
         <v>3948</v>
       </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
       <c r="I42" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -2124,37 +1996,34 @@
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="n">
-        <v>1</v>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>bcsstk15</t>
+        </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>bcsstk15.mtx</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>MP_Aitken</t>
-        </is>
+          <t>MP_Aitken</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>6538214586.124658</v>
       </c>
       <c r="E43" t="n">
-        <v>6538214586.124658</v>
+        <v>59</v>
       </c>
       <c r="F43" t="n">
-        <v>59</v>
+        <v>0.3652317523956299</v>
       </c>
       <c r="G43" t="n">
-        <v>0.3652317523956299</v>
-      </c>
-      <c r="H43" t="n">
         <v>3948</v>
       </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
       <c r="I43" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -2164,37 +2033,34 @@
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="n">
-        <v>2</v>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>bcsstk11</t>
+        </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>bcsstk11.mtx</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>MP</t>
-        </is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>654926088.2605356</v>
       </c>
       <c r="E44" t="n">
-        <v>654926088.2605356</v>
+        <v>28</v>
       </c>
       <c r="F44" t="n">
-        <v>28</v>
+        <v>0.01963591575622559</v>
       </c>
       <c r="G44" t="n">
-        <v>0.01963591575622559</v>
-      </c>
-      <c r="H44" t="n">
         <v>1473</v>
       </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
       <c r="I44" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -2204,37 +2070,34 @@
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="n">
-        <v>3</v>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>bcsstk11</t>
+        </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>bcsstk11.mtx</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>MP_Aitken</t>
-        </is>
+          <t>MP_Aitken</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>654950577.7596854</v>
       </c>
       <c r="E45" t="n">
-        <v>654950577.7596854</v>
+        <v>18</v>
       </c>
       <c r="F45" t="n">
-        <v>18</v>
+        <v>0.01816582679748535</v>
       </c>
       <c r="G45" t="n">
-        <v>0.01816582679748535</v>
-      </c>
-      <c r="H45" t="n">
         <v>1473</v>
       </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
       <c r="I45" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -2244,37 +2107,34 @@
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="n">
-        <v>4</v>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>bcsstk09</t>
+        </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>bcsstk09.mtx</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>MP</t>
-        </is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>67579067.21497774</v>
       </c>
       <c r="E46" t="n">
-        <v>67579067.21497774</v>
+        <v>220</v>
       </c>
       <c r="F46" t="n">
-        <v>220</v>
+        <v>0.0425410270690918</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0425410270690918</v>
-      </c>
-      <c r="H46" t="n">
         <v>1083</v>
       </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
       <c r="I46" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -2284,37 +2144,34 @@
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="n">
-        <v>5</v>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>bcsstk09</t>
+        </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>bcsstk09.mtx</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>MP_Aitken</t>
-        </is>
+          <t>MP_Aitken</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>67845967.03713822</v>
       </c>
       <c r="E47" t="n">
-        <v>67845967.03713822</v>
+        <v>90</v>
       </c>
       <c r="F47" t="n">
-        <v>90</v>
+        <v>0.01436471939086914</v>
       </c>
       <c r="G47" t="n">
-        <v>0.01436471939086914</v>
-      </c>
-      <c r="H47" t="n">
         <v>1083</v>
       </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
       <c r="I47" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -2324,37 +2181,34 @@
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="n">
-        <v>6</v>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>bcsstk16</t>
+        </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>bcsstk16.mtx</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>MP</t>
-        </is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>4085202504.101666</v>
       </c>
       <c r="E48" t="n">
-        <v>4085202504.101666</v>
+        <v>35</v>
       </c>
       <c r="F48" t="n">
-        <v>35</v>
+        <v>0.341472864151001</v>
       </c>
       <c r="G48" t="n">
-        <v>0.341472864151001</v>
-      </c>
-      <c r="H48" t="n">
         <v>4884</v>
       </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
       <c r="I48" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -2364,37 +2218,34 @@
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="n">
-        <v>7</v>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>bcsstk16</t>
+        </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>bcsstk16.mtx</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>MP_Aitken</t>
-        </is>
+          <t>MP_Aitken</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>4085245570.077303</v>
       </c>
       <c r="E49" t="n">
-        <v>4085245570.077303</v>
+        <v>27</v>
       </c>
       <c r="F49" t="n">
-        <v>27</v>
+        <v>0.2618873119354248</v>
       </c>
       <c r="G49" t="n">
-        <v>0.2618873119354248</v>
-      </c>
-      <c r="H49" t="n">
         <v>4884</v>
       </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
       <c r="I49" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -2404,37 +2255,34 @@
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="n">
-        <v>8</v>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>bcsstk08</t>
+        </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>bcsstk08.mtx</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>MP</t>
-        </is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>76569996762.00502</v>
       </c>
       <c r="E50" t="n">
-        <v>76569996762.00502</v>
+        <v>10</v>
       </c>
       <c r="F50" t="n">
-        <v>10</v>
+        <v>0.00296330451965332</v>
       </c>
       <c r="G50" t="n">
-        <v>0.00296330451965332</v>
-      </c>
-      <c r="H50" t="n">
         <v>1074</v>
       </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
       <c r="I50" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -2444,37 +2292,34 @@
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="n">
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>bcsstk08</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>MP_Aitken</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>76570318161.79057</v>
+      </c>
+      <c r="E51" t="n">
         <v>9</v>
       </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>bcsstk08.mtx</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>MP_Aitken</t>
-        </is>
-      </c>
-      <c r="E51" t="n">
-        <v>76570318161.79057</v>
-      </c>
       <c r="F51" t="n">
-        <v>9</v>
+        <v>0.003155946731567383</v>
       </c>
       <c r="G51" t="n">
-        <v>0.003155946731567383</v>
-      </c>
-      <c r="H51" t="n">
         <v>1074</v>
       </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
       <c r="I51" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -2484,37 +2329,34 @@
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="n">
-        <v>10</v>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>bcsstk06</t>
+        </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>bcsstk06.mtx</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>MP</t>
-        </is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>3485075325.977184</v>
       </c>
       <c r="E52" t="n">
-        <v>3485075325.977184</v>
+        <v>21</v>
       </c>
       <c r="F52" t="n">
-        <v>21</v>
+        <v>0.006139278411865234</v>
       </c>
       <c r="G52" t="n">
-        <v>0.006139278411865234</v>
-      </c>
-      <c r="H52" t="n">
         <v>420</v>
       </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
       <c r="I52" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -2524,37 +2366,34 @@
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="n">
-        <v>11</v>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>bcsstk06</t>
+        </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>bcsstk06.mtx</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>MP_Aitken</t>
-        </is>
+          <t>MP_Aitken</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>3485103329.846988</v>
       </c>
       <c r="E53" t="n">
-        <v>3485103329.846988</v>
+        <v>14</v>
       </c>
       <c r="F53" t="n">
-        <v>14</v>
+        <v>0.0005955696105957031</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0005955696105957031</v>
-      </c>
-      <c r="H53" t="n">
         <v>420</v>
       </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
       <c r="I53" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -2564,37 +2403,34 @@
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="n">
-        <v>12</v>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>bcsstk13</t>
+        </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>bcsstk13.mtx</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>MP</t>
-        </is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>3112885321254.005</v>
       </c>
       <c r="E54" t="n">
-        <v>3112885321254.005</v>
+        <v>176</v>
       </c>
       <c r="F54" t="n">
-        <v>176</v>
+        <v>0.4092903137207031</v>
       </c>
       <c r="G54" t="n">
-        <v>0.4092903137207031</v>
-      </c>
-      <c r="H54" t="n">
         <v>2003</v>
       </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
       <c r="I54" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
-      <c r="J54" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -2604,37 +2440,34 @@
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="n">
-        <v>13</v>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>bcsstk13</t>
+        </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>bcsstk13.mtx</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>MP_Aitken</t>
-        </is>
+          <t>MP_Aitken</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>3115651354786.666</v>
       </c>
       <c r="E55" t="n">
-        <v>3115651354786.666</v>
+        <v>130</v>
       </c>
       <c r="F55" t="n">
-        <v>130</v>
+        <v>0.199580192565918</v>
       </c>
       <c r="G55" t="n">
-        <v>0.199580192565918</v>
-      </c>
-      <c r="H55" t="n">
         <v>2003</v>
       </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
       <c r="I55" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -2644,37 +2477,34 @@
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="n">
-        <v>14</v>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>bcsstk12</t>
+        </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>bcsstk12.mtx</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>MP</t>
-        </is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>654926088.2605356</v>
       </c>
       <c r="E56" t="n">
-        <v>654926088.2605356</v>
+        <v>28</v>
       </c>
       <c r="F56" t="n">
-        <v>28</v>
+        <v>0.01883149147033691</v>
       </c>
       <c r="G56" t="n">
-        <v>0.01883149147033691</v>
-      </c>
-      <c r="H56" t="n">
         <v>1473</v>
       </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
       <c r="I56" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -2684,37 +2514,34 @@
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="n">
-        <v>15</v>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>bcsstk12</t>
+        </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>bcsstk12.mtx</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>MP_Aitken</t>
-        </is>
+          <t>MP_Aitken</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>654950577.7596854</v>
       </c>
       <c r="E57" t="n">
-        <v>654950577.7596854</v>
+        <v>18</v>
       </c>
       <c r="F57" t="n">
-        <v>18</v>
+        <v>0.01219797134399414</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01219797134399414</v>
-      </c>
-      <c r="H57" t="n">
         <v>1473</v>
       </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
       <c r="I57" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -2724,37 +2551,34 @@
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="n">
-        <v>16</v>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>bcsstk07</t>
+        </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>bcsstk07.mtx</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>MP</t>
-        </is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>3485075325.977184</v>
       </c>
       <c r="E58" t="n">
-        <v>3485075325.977184</v>
+        <v>21</v>
       </c>
       <c r="F58" t="n">
-        <v>21</v>
+        <v>0.0008106231689453125</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0008106231689453125</v>
-      </c>
-      <c r="H58" t="n">
         <v>420</v>
       </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
       <c r="I58" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
-      <c r="J58" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -2764,37 +2588,34 @@
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="n">
-        <v>17</v>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>bcsstk07</t>
+        </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>bcsstk07.mtx</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>MP_Aitken</t>
-        </is>
+          <t>MP_Aitken</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>3485103329.846988</v>
       </c>
       <c r="E59" t="n">
-        <v>3485103329.846988</v>
+        <v>14</v>
       </c>
       <c r="F59" t="n">
-        <v>14</v>
+        <v>0.0005476474761962891</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0005476474761962891</v>
-      </c>
-      <c r="H59" t="n">
         <v>420</v>
       </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
       <c r="I59" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
-      <c r="J59" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -2804,37 +2625,34 @@
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="n">
-        <v>18</v>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>bcsstk10</t>
+        </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>bcsstk10.mtx</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>MP</t>
-        </is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>44724660.27811407</v>
       </c>
       <c r="E60" t="n">
-        <v>44724660.27811407</v>
+        <v>55</v>
       </c>
       <c r="F60" t="n">
-        <v>55</v>
+        <v>0.01897335052490234</v>
       </c>
       <c r="G60" t="n">
-        <v>0.01897335052490234</v>
-      </c>
-      <c r="H60" t="n">
         <v>1086</v>
       </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
       <c r="I60" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -2844,37 +2662,34 @@
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="n">
-        <v>19</v>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>bcsstk10</t>
+        </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>bcsstk10.mtx</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>MP_Aitken</t>
-        </is>
+          <t>MP_Aitken</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>44735156.50494859</v>
       </c>
       <c r="E61" t="n">
-        <v>44735156.50494859</v>
+        <v>44</v>
       </c>
       <c r="F61" t="n">
-        <v>44</v>
+        <v>0.01708889007568359</v>
       </c>
       <c r="G61" t="n">
-        <v>0.01708889007568359</v>
-      </c>
-      <c r="H61" t="n">
         <v>1086</v>
       </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
       <c r="I61" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
-      <c r="J61" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -2884,37 +2699,34 @@
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="n">
-        <v>0</v>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>bcsstk25</t>
+        </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>bcsstk25.mtx</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>MP</t>
-        </is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>1060008038118777</v>
       </c>
       <c r="E62" t="n">
-        <v>1060008038118777</v>
+        <v>23</v>
       </c>
       <c r="F62" t="n">
-        <v>23</v>
+        <v>2.315417289733887</v>
       </c>
       <c r="G62" t="n">
-        <v>2.315417289733887</v>
-      </c>
-      <c r="H62" t="n">
         <v>15439</v>
       </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
       <c r="I62" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
-      <c r="J62" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -2924,37 +2736,34 @@
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="n">
-        <v>1</v>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>bcsstk25</t>
+        </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>bcsstk25.mtx</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>MP_Aitken</t>
-        </is>
+          <t>MP_Aitken</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>1060022565795500</v>
       </c>
       <c r="E63" t="n">
-        <v>1060022565795500</v>
+        <v>16</v>
       </c>
       <c r="F63" t="n">
-        <v>16</v>
+        <v>1.568404674530029</v>
       </c>
       <c r="G63" t="n">
-        <v>1.568404674530029</v>
-      </c>
-      <c r="H63" t="n">
         <v>15439</v>
       </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
       <c r="I63" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
-      <c r="J63" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -2964,37 +2773,34 @@
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="n">
-        <v>2</v>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>bcsstk18</t>
+        </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>bcsstk18.mtx</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>MP</t>
-        </is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>42951395539.5179</v>
       </c>
       <c r="E64" t="n">
-        <v>42951395539.5179</v>
+        <v>39</v>
       </c>
       <c r="F64" t="n">
-        <v>39</v>
+        <v>1.814125061035156</v>
       </c>
       <c r="G64" t="n">
-        <v>1.814125061035156</v>
-      </c>
-      <c r="H64" t="n">
         <v>11948</v>
       </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
       <c r="I64" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
-      <c r="J64" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -3004,37 +2810,34 @@
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="n">
-        <v>3</v>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>bcsstk18</t>
+        </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>bcsstk18.mtx</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>MP_Aitken</t>
-        </is>
+          <t>MP_Aitken</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>42952170136.46172</v>
       </c>
       <c r="E65" t="n">
-        <v>42952170136.46172</v>
+        <v>32</v>
       </c>
       <c r="F65" t="n">
-        <v>32</v>
+        <v>1.915487051010132</v>
       </c>
       <c r="G65" t="n">
-        <v>1.915487051010132</v>
-      </c>
-      <c r="H65" t="n">
         <v>11948</v>
       </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
       <c r="I65" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
-      <c r="J65" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -3044,37 +2847,34 @@
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="n">
-        <v>4</v>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>bcsstk23</t>
+        </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>bcsstk23.mtx</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>MP</t>
-        </is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>2.257987991320515e+16</v>
       </c>
       <c r="E66" t="n">
-        <v>2.257987991320515e+16</v>
+        <v>31</v>
       </c>
       <c r="F66" t="n">
-        <v>31</v>
+        <v>0.1169843673706055</v>
       </c>
       <c r="G66" t="n">
-        <v>0.1169843673706055</v>
-      </c>
-      <c r="H66" t="n">
         <v>3134</v>
       </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
       <c r="I66" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
-      <c r="J66" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -3084,37 +2884,34 @@
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="n">
-        <v>5</v>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>bcsstk23</t>
+        </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>bcsstk23.mtx</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>MP_Aitken</t>
-        </is>
+          <t>MP_Aitken</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>2.258040926891586e+16</v>
       </c>
       <c r="E67" t="n">
-        <v>2.258040926891586e+16</v>
+        <v>19</v>
       </c>
       <c r="F67" t="n">
-        <v>19</v>
+        <v>0.0715019702911377</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0715019702911377</v>
-      </c>
-      <c r="H67" t="n">
         <v>3134</v>
       </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
       <c r="I67" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
-      <c r="J67" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -3124,37 +2921,34 @@
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="n">
-        <v>6</v>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>bcsstk22</t>
+        </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>bcsstk22.mtx</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>MP</t>
-        </is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>5849890.36991932</v>
       </c>
       <c r="E68" t="n">
-        <v>5849890.36991932</v>
+        <v>32</v>
       </c>
       <c r="F68" t="n">
-        <v>32</v>
+        <v>0.00137639045715332</v>
       </c>
       <c r="G68" t="n">
-        <v>0.00137639045715332</v>
-      </c>
-      <c r="H68" t="n">
         <v>138</v>
       </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
       <c r="I68" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
-      <c r="J68" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -3164,37 +2958,34 @@
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="n">
-        <v>7</v>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>bcsstk22</t>
+        </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>bcsstk22.mtx</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>MP_Aitken</t>
-        </is>
+          <t>MP_Aitken</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>5849906.436342365</v>
       </c>
       <c r="E69" t="n">
-        <v>5849906.436342365</v>
+        <v>17</v>
       </c>
       <c r="F69" t="n">
-        <v>17</v>
+        <v>0.0003683567047119141</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0003683567047119141</v>
-      </c>
-      <c r="H69" t="n">
         <v>138</v>
       </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
       <c r="I69" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
-      <c r="J69" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -3204,37 +2995,34 @@
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="n">
-        <v>8</v>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>bcsstk26</t>
+        </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>bcsstk26.mtx</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>MP</t>
-        </is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>158268836382.195</v>
       </c>
       <c r="E70" t="n">
-        <v>158268836382.195</v>
+        <v>46</v>
       </c>
       <c r="F70" t="n">
-        <v>46</v>
+        <v>0.05125308036804199</v>
       </c>
       <c r="G70" t="n">
-        <v>0.05125308036804199</v>
-      </c>
-      <c r="H70" t="n">
         <v>1922</v>
       </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
       <c r="I70" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
-      <c r="J70" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -3244,37 +3032,34 @@
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="n">
-        <v>9</v>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>bcsstk26</t>
+        </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>bcsstk26.mtx</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>MP_Aitken</t>
-        </is>
+          <t>MP_Aitken</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>158274519528.784</v>
       </c>
       <c r="E71" t="n">
-        <v>158274519528.784</v>
+        <v>34</v>
       </c>
       <c r="F71" t="n">
-        <v>34</v>
+        <v>0.03121829032897949</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03121829032897949</v>
-      </c>
-      <c r="H71" t="n">
         <v>1922</v>
       </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
       <c r="I71" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
-      <c r="J71" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -3284,37 +3069,34 @@
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="n">
-        <v>10</v>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>bcsstk20</t>
+        </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>bcsstk20.mtx</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>MP</t>
-        </is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>1.261491349765899e+16</v>
       </c>
       <c r="E72" t="n">
-        <v>1.261491349765899e+16</v>
+        <v>30</v>
       </c>
       <c r="F72" t="n">
-        <v>30</v>
+        <v>0.001111507415771484</v>
       </c>
       <c r="G72" t="n">
-        <v>0.001111507415771484</v>
-      </c>
-      <c r="H72" t="n">
         <v>485</v>
       </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
       <c r="I72" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
-      <c r="J72" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -3324,37 +3106,34 @@
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="n">
-        <v>11</v>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>bcsstk20</t>
+        </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>bcsstk20.mtx</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>MP_Aitken</t>
-        </is>
+          <t>MP_Aitken</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>1.261527956890907e+16</v>
       </c>
       <c r="E73" t="n">
-        <v>1.261527956890907e+16</v>
+        <v>20</v>
       </c>
       <c r="F73" t="n">
-        <v>20</v>
+        <v>0.0008611679077148438</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0008611679077148438</v>
-      </c>
-      <c r="H73" t="n">
         <v>485</v>
       </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
       <c r="I73" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
-      <c r="J73" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -3364,37 +3143,34 @@
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="n">
-        <v>12</v>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>bcsstk21</t>
+        </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>bcsstk21.mtx</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>MP</t>
-        </is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>127119840.5799289</v>
       </c>
       <c r="E74" t="n">
-        <v>127119840.5799289</v>
+        <v>335</v>
       </c>
       <c r="F74" t="n">
-        <v>335</v>
+        <v>1.934742212295532</v>
       </c>
       <c r="G74" t="n">
-        <v>1.934742212295532</v>
-      </c>
-      <c r="H74" t="n">
         <v>3600</v>
       </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
       <c r="I74" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
-      <c r="J74" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -3404,37 +3180,34 @@
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="n">
-        <v>13</v>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>bcsstk21</t>
+        </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>bcsstk21.mtx</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>MP_Aitken</t>
-        </is>
+          <t>MP_Aitken</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>127191447.3212106</v>
       </c>
       <c r="E75" t="n">
-        <v>127191447.3212106</v>
+        <v>185</v>
       </c>
       <c r="F75" t="n">
-        <v>185</v>
+        <v>0.7697076797485352</v>
       </c>
       <c r="G75" t="n">
-        <v>0.7697076797485352</v>
-      </c>
-      <c r="H75" t="n">
         <v>3600</v>
       </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
       <c r="I75" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
-      <c r="J75" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -3444,37 +3217,34 @@
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" t="n">
-        <v>14</v>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>bcsstk17</t>
+        </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>bcsstk17.mtx</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>MP</t>
-        </is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>12960385068.16294</v>
       </c>
       <c r="E76" t="n">
-        <v>12960385068.16294</v>
+        <v>22</v>
       </c>
       <c r="F76" t="n">
-        <v>22</v>
+        <v>1.235620260238647</v>
       </c>
       <c r="G76" t="n">
-        <v>1.235620260238647</v>
-      </c>
-      <c r="H76" t="n">
         <v>10974</v>
       </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
       <c r="I76" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
-      <c r="J76" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -3484,37 +3254,34 @@
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77" t="n">
-        <v>15</v>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>bcsstk17</t>
+        </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>bcsstk17.mtx</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>MP_Aitken</t>
-        </is>
+          <t>MP_Aitken</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>12960480531.96818</v>
       </c>
       <c r="E77" t="n">
-        <v>12960480531.96818</v>
+        <v>18</v>
       </c>
       <c r="F77" t="n">
-        <v>18</v>
+        <v>0.7504212856292725</v>
       </c>
       <c r="G77" t="n">
-        <v>0.7504212856292725</v>
-      </c>
-      <c r="H77" t="n">
         <v>10974</v>
       </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
       <c r="I77" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
-      <c r="J77" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -3524,37 +3291,34 @@
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78" t="n">
-        <v>16</v>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>bcsstk27</t>
+        </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>bcsstk27.mtx</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>MP</t>
-        </is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>3464617.500374258</v>
       </c>
       <c r="E78" t="n">
-        <v>3464617.500374258</v>
+        <v>85</v>
       </c>
       <c r="F78" t="n">
-        <v>85</v>
+        <v>0.02953696250915527</v>
       </c>
       <c r="G78" t="n">
-        <v>0.02953696250915527</v>
-      </c>
-      <c r="H78" t="n">
         <v>1224</v>
       </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
       <c r="I78" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
-      <c r="J78" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -3564,37 +3328,34 @@
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79" t="n">
-        <v>17</v>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>bcsstk27</t>
+        </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>bcsstk27.mtx</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>MP_Aitken</t>
-        </is>
+          <t>MP_Aitken</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>3464838.462803914</v>
       </c>
       <c r="E79" t="n">
-        <v>3464838.462803914</v>
+        <v>49</v>
       </c>
       <c r="F79" t="n">
-        <v>49</v>
+        <v>0.01438355445861816</v>
       </c>
       <c r="G79" t="n">
-        <v>0.01438355445861816</v>
-      </c>
-      <c r="H79" t="n">
         <v>1224</v>
       </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
       <c r="I79" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
-      <c r="J79" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -3604,37 +3365,34 @@
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B80" t="n">
-        <v>18</v>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>bcsstk19</t>
+        </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>bcsstk19.mtx</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>MP</t>
-        </is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>192111739442336.5</v>
       </c>
       <c r="E80" t="n">
-        <v>192111739442336.5</v>
+        <v>23</v>
       </c>
       <c r="F80" t="n">
-        <v>23</v>
+        <v>0.001952171325683594</v>
       </c>
       <c r="G80" t="n">
-        <v>0.001952171325683594</v>
-      </c>
-      <c r="H80" t="n">
         <v>817</v>
       </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
       <c r="I80" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
-      <c r="J80" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -3644,37 +3402,34 @@
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B81" t="n">
-        <v>19</v>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>bcsstk19</t>
+        </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>bcsstk19.mtx</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>MP_Aitken</t>
-        </is>
+          <t>MP_Aitken</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>192109842633671.2</v>
       </c>
       <c r="E81" t="n">
-        <v>192109842633671.2</v>
+        <v>16</v>
       </c>
       <c r="F81" t="n">
-        <v>16</v>
+        <v>0.001260757446289062</v>
       </c>
       <c r="G81" t="n">
-        <v>0.001260757446289062</v>
-      </c>
-      <c r="H81" t="n">
         <v>817</v>
       </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
       <c r="I81" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
-      <c r="J81" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -3684,37 +3439,34 @@
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B82" t="n">
-        <v>0</v>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>bcsstm10</t>
+        </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>bcsstm10.mtx</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>MP</t>
-        </is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>28131.9510377264</v>
       </c>
       <c r="E82" t="n">
-        <v>28131.9510377264</v>
+        <v>141</v>
       </c>
       <c r="F82" t="n">
-        <v>141</v>
+        <v>0.05582213401794434</v>
       </c>
       <c r="G82" t="n">
-        <v>0.05582213401794434</v>
-      </c>
-      <c r="H82" t="n">
         <v>1086</v>
       </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
       <c r="I82" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
-      <c r="J82" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -3724,37 +3476,34 @@
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="B83" t="n">
-        <v>1</v>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>bcsstm10</t>
+        </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>bcsstm10.mtx</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>MP_Aitken</t>
-        </is>
+          <t>MP_Aitken</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>28140.67049436026</v>
       </c>
       <c r="E83" t="n">
-        <v>28140.67049436026</v>
+        <v>78</v>
       </c>
       <c r="F83" t="n">
-        <v>78</v>
+        <v>0.01999592781066895</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01999592781066895</v>
-      </c>
-      <c r="H83" t="n">
         <v>1086</v>
       </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
       <c r="I83" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
-      <c r="J83" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -3764,37 +3513,34 @@
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="B84" t="n">
-        <v>2</v>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>bcsstm12</t>
+        </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>bcsstm12.mtx</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>MP</t>
-        </is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>13.40996996333015</v>
       </c>
       <c r="E84" t="n">
-        <v>13.40996996333015</v>
+        <v>122</v>
       </c>
       <c r="F84" t="n">
-        <v>122</v>
+        <v>0.0831451416015625</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0831451416015625</v>
-      </c>
-      <c r="H84" t="n">
         <v>1473</v>
       </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
       <c r="I84" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
-      <c r="J84" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -3804,37 +3550,34 @@
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="B85" t="n">
-        <v>3</v>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>bcsstm12</t>
+        </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>bcsstm12.mtx</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>MP_Aitken</t>
-        </is>
+          <t>MP_Aitken</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>13.41578254765199</v>
       </c>
       <c r="E85" t="n">
-        <v>13.41578254765199</v>
+        <v>75</v>
       </c>
       <c r="F85" t="n">
-        <v>75</v>
+        <v>0.03833866119384766</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03833866119384766</v>
-      </c>
-      <c r="H85" t="n">
         <v>1473</v>
       </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
       <c r="I85" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
-      <c r="J85" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -3844,37 +3587,34 @@
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="B86" t="n">
-        <v>4</v>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>bcsstm20</t>
+        </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>bcsstm20.mtx</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>MP</t>
-        </is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>47756316.74668948</v>
       </c>
       <c r="E86" t="n">
-        <v>47756316.74668948</v>
+        <v>146</v>
       </c>
       <c r="F86" t="n">
-        <v>146</v>
+        <v>0.003704547882080078</v>
       </c>
       <c r="G86" t="n">
-        <v>0.003704547882080078</v>
-      </c>
-      <c r="H86" t="n">
         <v>485</v>
       </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
       <c r="I86" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
-      <c r="J86" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -3884,37 +3624,34 @@
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="B87" t="n">
-        <v>5</v>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>bcsstm20</t>
+        </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>bcsstm20.mtx</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>MP_Aitken</t>
-        </is>
+          <t>MP_Aitken</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>47811793.47930697</v>
       </c>
       <c r="E87" t="n">
-        <v>47811793.47930697</v>
+        <v>113</v>
       </c>
       <c r="F87" t="n">
-        <v>113</v>
+        <v>0.003336191177368164</v>
       </c>
       <c r="G87" t="n">
-        <v>0.003336191177368164</v>
-      </c>
-      <c r="H87" t="n">
         <v>485</v>
       </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
       <c r="I87" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
-      <c r="J87" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -3924,37 +3661,34 @@
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="B88" t="n">
-        <v>6</v>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>bcsstm11</t>
+        </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>bcsstm11.mtx</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>MP</t>
-        </is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>31.57768332328855</v>
       </c>
       <c r="E88" t="n">
-        <v>31.57768332328855</v>
+        <v>18</v>
       </c>
       <c r="F88" t="n">
-        <v>18</v>
+        <v>0.01369833946228027</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01369833946228027</v>
-      </c>
-      <c r="H88" t="n">
         <v>1473</v>
       </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
       <c r="I88" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
-      <c r="J88" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -3964,37 +3698,34 @@
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="B89" t="n">
-        <v>7</v>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>bcsstm11</t>
+        </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>bcsstm11.mtx</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>MP_Aitken</t>
-        </is>
+          <t>MP_Aitken</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>31.57822523533776</v>
       </c>
       <c r="E89" t="n">
-        <v>31.57822523533776</v>
+        <v>11</v>
       </c>
       <c r="F89" t="n">
-        <v>11</v>
+        <v>0.007934093475341797</v>
       </c>
       <c r="G89" t="n">
-        <v>0.007934093475341797</v>
-      </c>
-      <c r="H89" t="n">
         <v>1473</v>
       </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
       <c r="I89" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
-      <c r="J89" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -4004,37 +3735,34 @@
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="B90" t="n">
-        <v>8</v>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>bcsstm22</t>
+        </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>bcsstm22.mtx</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>MP</t>
-        </is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>0.00973740970842194</v>
       </c>
       <c r="E90" t="n">
-        <v>0.00973740970842194</v>
+        <v>29</v>
       </c>
       <c r="F90" t="n">
-        <v>29</v>
+        <v>0.000637054443359375</v>
       </c>
       <c r="G90" t="n">
-        <v>0.000637054443359375</v>
-      </c>
-      <c r="H90" t="n">
         <v>138</v>
       </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
       <c r="I90" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
-      <c r="J90" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -4044,37 +3772,34 @@
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="B91" t="n">
-        <v>9</v>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>bcsstm22</t>
+        </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>bcsstm22.mtx</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>MP_Aitken</t>
-        </is>
+          <t>MP_Aitken</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>0.009737699457095711</v>
       </c>
       <c r="E91" t="n">
-        <v>0.009737699457095711</v>
+        <v>17</v>
       </c>
       <c r="F91" t="n">
-        <v>17</v>
+        <v>0.0003821849822998047</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0003821849822998047</v>
-      </c>
-      <c r="H91" t="n">
         <v>138</v>
       </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
       <c r="I91" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
-      <c r="J91" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -4084,37 +3809,34 @@
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="B92" t="n">
-        <v>10</v>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>bcsstm08</t>
+        </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>bcsstm08.mtx</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>MP</t>
-        </is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>1444020.255745148</v>
       </c>
       <c r="E92" t="n">
-        <v>1444020.255745148</v>
+        <v>29</v>
       </c>
       <c r="F92" t="n">
-        <v>29</v>
+        <v>0.008422136306762695</v>
       </c>
       <c r="G92" t="n">
-        <v>0.008422136306762695</v>
-      </c>
-      <c r="H92" t="n">
         <v>1074</v>
       </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
       <c r="I92" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
-      <c r="J92" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -4124,37 +3846,34 @@
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
-      <c r="B93" t="n">
-        <v>11</v>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>bcsstm08</t>
+        </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>bcsstm08.mtx</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>MP_Aitken</t>
-        </is>
+          <t>MP_Aitken</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>1444053.928888656</v>
       </c>
       <c r="E93" t="n">
-        <v>1444053.928888656</v>
+        <v>16</v>
       </c>
       <c r="F93" t="n">
-        <v>16</v>
+        <v>0.009831428527832031</v>
       </c>
       <c r="G93" t="n">
-        <v>0.009831428527832031</v>
-      </c>
-      <c r="H93" t="n">
         <v>1074</v>
       </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
       <c r="I93" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
-      <c r="J93" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -4164,37 +3883,34 @@
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="B94" t="n">
-        <v>12</v>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>bcsstm09</t>
+        </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>bcsstm09.mtx</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>MP</t>
-        </is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>0.000259020384904</v>
       </c>
       <c r="E94" t="n">
-        <v>0.000259020384904</v>
+        <v>3</v>
       </c>
       <c r="F94" t="n">
-        <v>3</v>
+        <v>0.001087665557861328</v>
       </c>
       <c r="G94" t="n">
-        <v>0.001087665557861328</v>
-      </c>
-      <c r="H94" t="n">
         <v>1083</v>
       </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
       <c r="I94" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
-      <c r="J94" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -4204,37 +3920,34 @@
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
-      <c r="B95" t="n">
-        <v>13</v>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>bcsstm09</t>
+        </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>bcsstm09.mtx</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>MP_Aitken</t>
-        </is>
+          <t>MP_Aitken</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>0.000259020384904</v>
       </c>
       <c r="E95" t="n">
-        <v>0.000259020384904</v>
+        <v>3</v>
       </c>
       <c r="F95" t="n">
-        <v>3</v>
+        <v>0.001116752624511719</v>
       </c>
       <c r="G95" t="n">
-        <v>0.001116752624511719</v>
-      </c>
-      <c r="H95" t="n">
         <v>1083</v>
       </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
       <c r="I95" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
-      <c r="J95" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -4244,37 +3957,34 @@
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
-      <c r="B96" t="n">
-        <v>14</v>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>bcsstm07</t>
+        </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>bcsstm07.mtx</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>MP</t>
-        </is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>2509.898102518885</v>
       </c>
       <c r="E96" t="n">
-        <v>2509.898102518885</v>
+        <v>103</v>
       </c>
       <c r="F96" t="n">
-        <v>103</v>
+        <v>0.00289463996887207</v>
       </c>
       <c r="G96" t="n">
-        <v>0.00289463996887207</v>
-      </c>
-      <c r="H96" t="n">
         <v>420</v>
       </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
       <c r="I96" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
-      <c r="J96" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -4284,37 +3994,34 @@
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
-      <c r="B97" t="n">
-        <v>15</v>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>bcsstm07</t>
+        </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>bcsstm07.mtx</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>MP_Aitken</t>
-        </is>
+          <t>MP_Aitken</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>2510.150448699714</v>
       </c>
       <c r="E97" t="n">
-        <v>2510.150448699714</v>
+        <v>66</v>
       </c>
       <c r="F97" t="n">
-        <v>66</v>
+        <v>0.002111911773681641</v>
       </c>
       <c r="G97" t="n">
-        <v>0.002111911773681641</v>
-      </c>
-      <c r="H97" t="n">
         <v>420</v>
       </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
       <c r="I97" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
-      <c r="J97" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -4324,37 +4031,34 @@
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="B98" t="n">
-        <v>16</v>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>bcsstm19</t>
+        </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>bcsstm19.mtx</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>MP</t>
-        </is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>39536719.78976859</v>
       </c>
       <c r="E98" t="n">
-        <v>39536719.78976859</v>
+        <v>130</v>
       </c>
       <c r="F98" t="n">
-        <v>130</v>
+        <v>0.01330924034118652</v>
       </c>
       <c r="G98" t="n">
-        <v>0.01330924034118652</v>
-      </c>
-      <c r="H98" t="n">
         <v>817</v>
       </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
       <c r="I98" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
-      <c r="J98" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -4364,37 +4068,34 @@
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
-      <c r="B99" t="n">
-        <v>17</v>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>bcsstm19</t>
+        </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>bcsstm19.mtx</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>MP_Aitken</t>
-        </is>
+          <t>MP_Aitken</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>39549333.10608483</v>
       </c>
       <c r="E99" t="n">
-        <v>39549333.10608483</v>
+        <v>87</v>
       </c>
       <c r="F99" t="n">
-        <v>87</v>
+        <v>0.005373954772949219</v>
       </c>
       <c r="G99" t="n">
-        <v>0.005373954772949219</v>
-      </c>
-      <c r="H99" t="n">
         <v>817</v>
       </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
       <c r="I99" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
-      <c r="J99" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -4404,37 +4105,34 @@
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
-      <c r="B100" t="n">
-        <v>18</v>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>bcsstm13</t>
+        </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>bcsstm13.mtx</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>MP</t>
-        </is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>177.2629905522275</v>
       </c>
       <c r="E100" t="n">
-        <v>177.2629905522275</v>
+        <v>43</v>
       </c>
       <c r="F100" t="n">
-        <v>43</v>
+        <v>0.04352807998657227</v>
       </c>
       <c r="G100" t="n">
-        <v>0.04352807998657227</v>
-      </c>
-      <c r="H100" t="n">
         <v>2003</v>
       </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
       <c r="I100" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
-      <c r="J100" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -4444,37 +4142,34 @@
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="B101" t="n">
-        <v>19</v>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>bcsstm13</t>
+        </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>bcsstm13.mtx</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>MP_Aitken</t>
-        </is>
+          <t>MP_Aitken</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>177.2664225281739</v>
       </c>
       <c r="E101" t="n">
-        <v>177.2664225281739</v>
+        <v>22</v>
       </c>
       <c r="F101" t="n">
-        <v>22</v>
+        <v>0.0250093936920166</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0250093936920166</v>
-      </c>
-      <c r="H101" t="n">
         <v>2003</v>
       </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
       <c r="I101" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
-      <c r="J101" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -4484,37 +4179,34 @@
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="B102" t="n">
-        <v>0</v>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>can_268</t>
+        </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>can_268.mtx</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>MP</t>
-        </is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>14.45866874440652</v>
       </c>
       <c r="E102" t="n">
-        <v>14.45866874440652</v>
+        <v>18</v>
       </c>
       <c r="F102" t="n">
-        <v>18</v>
+        <v>0.02560281753540039</v>
       </c>
       <c r="G102" t="n">
-        <v>0.02560281753540039</v>
-      </c>
-      <c r="H102" t="n">
         <v>268</v>
       </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>pattern</t>
+        </is>
+      </c>
       <c r="I102" t="inlineStr">
-        <is>
-          <t>pattern</t>
-        </is>
-      </c>
-      <c r="J102" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -4524,37 +4216,34 @@
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="B103" t="n">
-        <v>1</v>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>can_268</t>
+        </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>can_268.mtx</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>MP_Aitken</t>
-        </is>
+          <t>MP_Aitken</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>14.45863188310433</v>
       </c>
       <c r="E103" t="n">
-        <v>14.45863188310433</v>
+        <v>9</v>
       </c>
       <c r="F103" t="n">
-        <v>9</v>
+        <v>0.0002799034118652344</v>
       </c>
       <c r="G103" t="n">
-        <v>0.0002799034118652344</v>
-      </c>
-      <c r="H103" t="n">
         <v>268</v>
       </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>pattern</t>
+        </is>
+      </c>
       <c r="I103" t="inlineStr">
-        <is>
-          <t>pattern</t>
-        </is>
-      </c>
-      <c r="J103" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -4564,37 +4253,34 @@
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
-      <c r="B104" t="n">
-        <v>2</v>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>can_634</t>
+        </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>can_634.mtx</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>MP</t>
-        </is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>13.85636022094015</v>
       </c>
       <c r="E104" t="n">
-        <v>13.85636022094015</v>
+        <v>74</v>
       </c>
       <c r="F104" t="n">
-        <v>74</v>
+        <v>0.003340721130371094</v>
       </c>
       <c r="G104" t="n">
-        <v>0.003340721130371094</v>
-      </c>
-      <c r="H104" t="n">
         <v>634</v>
       </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>pattern</t>
+        </is>
+      </c>
       <c r="I104" t="inlineStr">
-        <is>
-          <t>pattern</t>
-        </is>
-      </c>
-      <c r="J104" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -4604,37 +4290,34 @@
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
-      <c r="B105" t="n">
-        <v>3</v>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>can_634</t>
+        </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>can_634.mtx</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>MP_Aitken</t>
-        </is>
+          <t>MP_Aitken</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>13.86178904213738</v>
       </c>
       <c r="E105" t="n">
-        <v>13.86178904213738</v>
+        <v>56</v>
       </c>
       <c r="F105" t="n">
-        <v>56</v>
+        <v>0.002785682678222656</v>
       </c>
       <c r="G105" t="n">
-        <v>0.002785682678222656</v>
-      </c>
-      <c r="H105" t="n">
         <v>634</v>
       </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>pattern</t>
+        </is>
+      </c>
       <c r="I105" t="inlineStr">
-        <is>
-          <t>pattern</t>
-        </is>
-      </c>
-      <c r="J105" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -4644,37 +4327,34 @@
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
-      <c r="B106" t="n">
-        <v>4</v>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>can_187</t>
+        </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>can_187.mtx</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>MP</t>
-        </is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>8.397620475292884</v>
       </c>
       <c r="E106" t="n">
-        <v>8.397620475292884</v>
+        <v>58</v>
       </c>
       <c r="F106" t="n">
-        <v>58</v>
+        <v>0.001135826110839844</v>
       </c>
       <c r="G106" t="n">
-        <v>0.001135826110839844</v>
-      </c>
-      <c r="H106" t="n">
         <v>187</v>
       </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>pattern</t>
+        </is>
+      </c>
       <c r="I106" t="inlineStr">
-        <is>
-          <t>pattern</t>
-        </is>
-      </c>
-      <c r="J106" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -4684,37 +4364,34 @@
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
-      <c r="B107" t="n">
-        <v>5</v>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>can_187</t>
+        </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>can_187.mtx</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>MP_Aitken</t>
-        </is>
+          <t>MP_Aitken</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>8.399295525379349</v>
       </c>
       <c r="E107" t="n">
-        <v>8.399295525379349</v>
+        <v>24</v>
       </c>
       <c r="F107" t="n">
-        <v>24</v>
+        <v>0.0005247592926025391</v>
       </c>
       <c r="G107" t="n">
-        <v>0.0005247592926025391</v>
-      </c>
-      <c r="H107" t="n">
         <v>187</v>
       </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>pattern</t>
+        </is>
+      </c>
       <c r="I107" t="inlineStr">
-        <is>
-          <t>pattern</t>
-        </is>
-      </c>
-      <c r="J107" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -4724,37 +4401,34 @@
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
-      <c r="B108" t="n">
-        <v>6</v>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>can_256</t>
+        </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>can_256.mtx</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>MP</t>
-        </is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>16.03687867071401</v>
       </c>
       <c r="E108" t="n">
-        <v>16.03687867071401</v>
+        <v>16</v>
       </c>
       <c r="F108" t="n">
-        <v>16</v>
+        <v>0.0004596710205078125</v>
       </c>
       <c r="G108" t="n">
-        <v>0.0004596710205078125</v>
-      </c>
-      <c r="H108" t="n">
         <v>256</v>
       </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>pattern</t>
+        </is>
+      </c>
       <c r="I108" t="inlineStr">
-        <is>
-          <t>pattern</t>
-        </is>
-      </c>
-      <c r="J108" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -4764,37 +4438,34 @@
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
-      <c r="B109" t="n">
-        <v>7</v>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>can_256</t>
+        </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>can_256.mtx</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>MP_Aitken</t>
-        </is>
+          <t>MP_Aitken</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>16.03715130336158</v>
       </c>
       <c r="E109" t="n">
-        <v>16.03715130336158</v>
+        <v>14</v>
       </c>
       <c r="F109" t="n">
-        <v>14</v>
+        <v>0.0004141330718994141</v>
       </c>
       <c r="G109" t="n">
-        <v>0.0004141330718994141</v>
-      </c>
-      <c r="H109" t="n">
         <v>256</v>
       </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>pattern</t>
+        </is>
+      </c>
       <c r="I109" t="inlineStr">
-        <is>
-          <t>pattern</t>
-        </is>
-      </c>
-      <c r="J109" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -4804,37 +4475,34 @@
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
-      <c r="B110" t="n">
-        <v>8</v>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>can_1054</t>
+        </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>can_1054.mtx</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>MP</t>
-        </is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>14.84373761133698</v>
       </c>
       <c r="E110" t="n">
-        <v>14.84373761133698</v>
+        <v>42</v>
       </c>
       <c r="F110" t="n">
-        <v>42</v>
+        <v>0.005423307418823242</v>
       </c>
       <c r="G110" t="n">
-        <v>0.005423307418823242</v>
-      </c>
-      <c r="H110" t="n">
         <v>1054</v>
       </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>pattern</t>
+        </is>
+      </c>
       <c r="I110" t="inlineStr">
-        <is>
-          <t>pattern</t>
-        </is>
-      </c>
-      <c r="J110" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -4844,37 +4512,34 @@
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
-      <c r="B111" t="n">
-        <v>9</v>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>can_1054</t>
+        </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>can_1054.mtx</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>MP_Aitken</t>
-        </is>
+          <t>MP_Aitken</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>14.84457329193234</v>
       </c>
       <c r="E111" t="n">
-        <v>14.84457329193234</v>
+        <v>28</v>
       </c>
       <c r="F111" t="n">
-        <v>28</v>
+        <v>0.003906488418579102</v>
       </c>
       <c r="G111" t="n">
-        <v>0.003906488418579102</v>
-      </c>
-      <c r="H111" t="n">
         <v>1054</v>
       </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>pattern</t>
+        </is>
+      </c>
       <c r="I111" t="inlineStr">
-        <is>
-          <t>pattern</t>
-        </is>
-      </c>
-      <c r="J111" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -4884,37 +4549,34 @@
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
-      <c r="B112" t="n">
-        <v>10</v>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>can_445</t>
+        </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>can_445.mtx</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>MP</t>
-        </is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>8.950130371605427</v>
       </c>
       <c r="E112" t="n">
-        <v>8.950130371605427</v>
+        <v>43</v>
       </c>
       <c r="F112" t="n">
-        <v>43</v>
+        <v>0.001050710678100586</v>
       </c>
       <c r="G112" t="n">
-        <v>0.001050710678100586</v>
-      </c>
-      <c r="H112" t="n">
         <v>445</v>
       </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>pattern</t>
+        </is>
+      </c>
       <c r="I112" t="inlineStr">
-        <is>
-          <t>pattern</t>
-        </is>
-      </c>
-      <c r="J112" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -4924,37 +4586,34 @@
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
-      <c r="B113" t="n">
-        <v>11</v>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>can_445</t>
+        </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>can_445.mtx</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>MP_Aitken</t>
-        </is>
+          <t>MP_Aitken</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>8.950544673990166</v>
       </c>
       <c r="E113" t="n">
-        <v>8.950544673990166</v>
+        <v>20</v>
       </c>
       <c r="F113" t="n">
-        <v>20</v>
+        <v>0.0007276535034179688</v>
       </c>
       <c r="G113" t="n">
-        <v>0.0007276535034179688</v>
-      </c>
-      <c r="H113" t="n">
         <v>445</v>
       </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>pattern</t>
+        </is>
+      </c>
       <c r="I113" t="inlineStr">
-        <is>
-          <t>pattern</t>
-        </is>
-      </c>
-      <c r="J113" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -4964,37 +4623,34 @@
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
-      <c r="B114" t="n">
-        <v>12</v>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>can_161</t>
+        </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>can_161.mtx</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>MP</t>
-        </is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>8.821261565896524</v>
       </c>
       <c r="E114" t="n">
-        <v>8.821261565896524</v>
+        <v>21</v>
       </c>
       <c r="F114" t="n">
-        <v>21</v>
+        <v>0.0004405975341796875</v>
       </c>
       <c r="G114" t="n">
-        <v>0.0004405975341796875</v>
-      </c>
-      <c r="H114" t="n">
         <v>161</v>
       </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>pattern</t>
+        </is>
+      </c>
       <c r="I114" t="inlineStr">
-        <is>
-          <t>pattern</t>
-        </is>
-      </c>
-      <c r="J114" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -5004,37 +4660,34 @@
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
-      <c r="B115" t="n">
-        <v>13</v>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>can_161</t>
+        </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>can_161.mtx</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>MP_Aitken</t>
-        </is>
+          <t>MP_Aitken</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>8.82129418362558</v>
       </c>
       <c r="E115" t="n">
-        <v>8.82129418362558</v>
+        <v>14</v>
       </c>
       <c r="F115" t="n">
-        <v>14</v>
+        <v>0.0003480911254882812</v>
       </c>
       <c r="G115" t="n">
-        <v>0.0003480911254882812</v>
-      </c>
-      <c r="H115" t="n">
         <v>161</v>
       </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>pattern</t>
+        </is>
+      </c>
       <c r="I115" t="inlineStr">
-        <is>
-          <t>pattern</t>
-        </is>
-      </c>
-      <c r="J115" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -5044,37 +4697,34 @@
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
-      <c r="B116" t="n">
-        <v>14</v>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>can_715</t>
+        </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>can_715.mtx</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>MP</t>
-        </is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>15.30932234687733</v>
       </c>
       <c r="E116" t="n">
-        <v>15.30932234687733</v>
+        <v>48</v>
       </c>
       <c r="F116" t="n">
-        <v>48</v>
+        <v>0.003895998001098633</v>
       </c>
       <c r="G116" t="n">
-        <v>0.003895998001098633</v>
-      </c>
-      <c r="H116" t="n">
         <v>715</v>
       </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>pattern</t>
+        </is>
+      </c>
       <c r="I116" t="inlineStr">
-        <is>
-          <t>pattern</t>
-        </is>
-      </c>
-      <c r="J116" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -5084,37 +4734,34 @@
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
-      <c r="B117" t="n">
-        <v>15</v>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>can_715</t>
+        </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>can_715.mtx</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>MP_Aitken</t>
-        </is>
+          <t>MP_Aitken</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>15.31046671178859</v>
       </c>
       <c r="E117" t="n">
-        <v>15.31046671178859</v>
+        <v>29</v>
       </c>
       <c r="F117" t="n">
-        <v>29</v>
+        <v>0.002469539642333984</v>
       </c>
       <c r="G117" t="n">
-        <v>0.002469539642333984</v>
-      </c>
-      <c r="H117" t="n">
         <v>715</v>
       </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>pattern</t>
+        </is>
+      </c>
       <c r="I117" t="inlineStr">
-        <is>
-          <t>pattern</t>
-        </is>
-      </c>
-      <c r="J117" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -5124,37 +4771,34 @@
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
-      <c r="B118" t="n">
-        <v>16</v>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>can_229</t>
+        </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>can_229.mtx</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>MP</t>
-        </is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>8.696410230685041</v>
       </c>
       <c r="E118" t="n">
-        <v>8.696410230685041</v>
+        <v>13</v>
       </c>
       <c r="F118" t="n">
-        <v>13</v>
+        <v>0.0003170967102050781</v>
       </c>
       <c r="G118" t="n">
-        <v>0.0003170967102050781</v>
-      </c>
-      <c r="H118" t="n">
         <v>229</v>
       </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>pattern</t>
+        </is>
+      </c>
       <c r="I118" t="inlineStr">
-        <is>
-          <t>pattern</t>
-        </is>
-      </c>
-      <c r="J118" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -5164,37 +4808,34 @@
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
-      <c r="B119" t="n">
-        <v>17</v>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>can_229</t>
+        </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>can_229.mtx</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>MP_Aitken</t>
-        </is>
+          <t>MP_Aitken</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>8.696434096273036</v>
       </c>
       <c r="E119" t="n">
-        <v>8.696434096273036</v>
+        <v>9</v>
       </c>
       <c r="F119" t="n">
-        <v>9</v>
+        <v>0.0002553462982177734</v>
       </c>
       <c r="G119" t="n">
-        <v>0.0002553462982177734</v>
-      </c>
-      <c r="H119" t="n">
         <v>229</v>
       </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>pattern</t>
+        </is>
+      </c>
       <c r="I119" t="inlineStr">
-        <is>
-          <t>pattern</t>
-        </is>
-      </c>
-      <c r="J119" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -5204,37 +4845,34 @@
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
-      <c r="B120" t="n">
-        <v>18</v>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>can_292</t>
+        </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>can_292.mtx</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>MP</t>
-        </is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>12.16372151100421</v>
       </c>
       <c r="E120" t="n">
-        <v>12.16372151100421</v>
+        <v>11</v>
       </c>
       <c r="F120" t="n">
-        <v>11</v>
+        <v>0.0003333091735839844</v>
       </c>
       <c r="G120" t="n">
-        <v>0.0003333091735839844</v>
-      </c>
-      <c r="H120" t="n">
         <v>292</v>
       </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>pattern</t>
+        </is>
+      </c>
       <c r="I120" t="inlineStr">
-        <is>
-          <t>pattern</t>
-        </is>
-      </c>
-      <c r="J120" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -5244,37 +4882,34 @@
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
-      <c r="B121" t="n">
-        <v>19</v>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>can_292</t>
+        </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>can_292.mtx</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>MP_Aitken</t>
-        </is>
+          <t>MP_Aitken</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>12.16373315524623</v>
       </c>
       <c r="E121" t="n">
-        <v>12.16373315524623</v>
+        <v>9</v>
       </c>
       <c r="F121" t="n">
-        <v>9</v>
+        <v>0.0002367496490478516</v>
       </c>
       <c r="G121" t="n">
-        <v>0.0002367496490478516</v>
-      </c>
-      <c r="H121" t="n">
         <v>292</v>
       </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>pattern</t>
+        </is>
+      </c>
       <c r="I121" t="inlineStr">
-        <is>
-          <t>pattern</t>
-        </is>
-      </c>
-      <c r="J121" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -5284,37 +4919,34 @@
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
-      <c r="B122" t="n">
-        <v>0</v>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>dwt_198</t>
+        </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>dwt_198.mtx</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>MP</t>
-        </is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>8.235967774192392</v>
       </c>
       <c r="E122" t="n">
-        <v>8.235967774192392</v>
+        <v>82</v>
       </c>
       <c r="F122" t="n">
-        <v>82</v>
+        <v>0.02615976333618164</v>
       </c>
       <c r="G122" t="n">
-        <v>0.02615976333618164</v>
-      </c>
-      <c r="H122" t="n">
         <v>198</v>
       </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>pattern</t>
+        </is>
+      </c>
       <c r="I122" t="inlineStr">
-        <is>
-          <t>pattern</t>
-        </is>
-      </c>
-      <c r="J122" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -5324,37 +4956,34 @@
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
-      <c r="B123" t="n">
-        <v>1</v>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>dwt_198</t>
+        </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>dwt_198.mtx</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>MP_Aitken</t>
-        </is>
+          <t>MP_Aitken</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>8.238892199495892</v>
       </c>
       <c r="E123" t="n">
-        <v>8.238892199495892</v>
+        <v>20</v>
       </c>
       <c r="F123" t="n">
-        <v>20</v>
+        <v>0.0005121231079101562</v>
       </c>
       <c r="G123" t="n">
-        <v>0.0005121231079101562</v>
-      </c>
-      <c r="H123" t="n">
         <v>198</v>
       </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>pattern</t>
+        </is>
+      </c>
       <c r="I123" t="inlineStr">
-        <is>
-          <t>pattern</t>
-        </is>
-      </c>
-      <c r="J123" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -5364,37 +4993,34 @@
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
-      <c r="B124" t="n">
-        <v>2</v>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>curtis54</t>
+        </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>curtis54.mtx</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>MP</t>
-        </is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>6.620026168940758</v>
       </c>
       <c r="E124" t="n">
-        <v>6.620026168940758</v>
+        <v>48</v>
       </c>
       <c r="F124" t="n">
-        <v>48</v>
+        <v>0.0009179115295410156</v>
       </c>
       <c r="G124" t="n">
-        <v>0.0009179115295410156</v>
-      </c>
-      <c r="H124" t="n">
         <v>54</v>
       </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>pattern</t>
+        </is>
+      </c>
       <c r="I124" t="inlineStr">
-        <is>
-          <t>pattern</t>
-        </is>
-      </c>
-      <c r="J124" t="inlineStr">
         <is>
           <t>general</t>
         </is>
@@ -5404,37 +5030,34 @@
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
-      <c r="B125" t="n">
-        <v>3</v>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>curtis54</t>
+        </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>curtis54.mtx</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>MP_Aitken</t>
-        </is>
+          <t>MP_Aitken</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>6.621506504127326</v>
       </c>
       <c r="E125" t="n">
-        <v>6.621506504127326</v>
+        <v>32</v>
       </c>
       <c r="F125" t="n">
-        <v>32</v>
+        <v>0.0003719329833984375</v>
       </c>
       <c r="G125" t="n">
-        <v>0.0003719329833984375</v>
-      </c>
-      <c r="H125" t="n">
         <v>54</v>
       </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>pattern</t>
+        </is>
+      </c>
       <c r="I125" t="inlineStr">
-        <is>
-          <t>pattern</t>
-        </is>
-      </c>
-      <c r="J125" t="inlineStr">
         <is>
           <t>general</t>
         </is>
@@ -5444,37 +5067,34 @@
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
-      <c r="B126" t="n">
-        <v>4</v>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>dwt_234</t>
+        </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>dwt_234.mtx</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>MP</t>
-        </is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>4.582832763035696</v>
       </c>
       <c r="E126" t="n">
-        <v>4.582832763035696</v>
+        <v>39</v>
       </c>
       <c r="F126" t="n">
-        <v>39</v>
+        <v>0.0008461475372314453</v>
       </c>
       <c r="G126" t="n">
-        <v>0.0008461475372314453</v>
-      </c>
-      <c r="H126" t="n">
         <v>234</v>
       </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>pattern</t>
+        </is>
+      </c>
       <c r="I126" t="inlineStr">
-        <is>
-          <t>pattern</t>
-        </is>
-      </c>
-      <c r="J126" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -5484,37 +5104,34 @@
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
-      <c r="B127" t="n">
-        <v>5</v>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>dwt_234</t>
+        </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>dwt_234.mtx</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>MP_Aitken</t>
-        </is>
+          <t>MP_Aitken</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>4.582889067575105</v>
       </c>
       <c r="E127" t="n">
-        <v>4.582889067575105</v>
+        <v>18</v>
       </c>
       <c r="F127" t="n">
-        <v>18</v>
+        <v>0.0003561973571777344</v>
       </c>
       <c r="G127" t="n">
-        <v>0.0003561973571777344</v>
-      </c>
-      <c r="H127" t="n">
         <v>234</v>
       </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>pattern</t>
+        </is>
+      </c>
       <c r="I127" t="inlineStr">
-        <is>
-          <t>pattern</t>
-        </is>
-      </c>
-      <c r="J127" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -5524,37 +5141,34 @@
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
-      <c r="B128" t="n">
-        <v>6</v>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>ck104</t>
+        </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>ck104.mtx</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>MP</t>
-        </is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>5.502385709511155</v>
       </c>
       <c r="E128" t="n">
-        <v>5.502385709511155</v>
+        <v>10</v>
       </c>
       <c r="F128" t="n">
-        <v>10</v>
+        <v>0.0001540184020996094</v>
       </c>
       <c r="G128" t="n">
-        <v>0.0001540184020996094</v>
-      </c>
-      <c r="H128" t="n">
         <v>104</v>
       </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
       <c r="I128" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
-      <c r="J128" t="inlineStr">
         <is>
           <t>general</t>
         </is>
@@ -5564,37 +5178,34 @@
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
-      <c r="B129" t="n">
-        <v>7</v>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>ck104</t>
+        </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>ck104.mtx</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>MP_Aitken</t>
-        </is>
+          <t>MP_Aitken</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>5.502378006298808</v>
       </c>
       <c r="E129" t="n">
-        <v>5.502378006298808</v>
+        <v>9</v>
       </c>
       <c r="F129" t="n">
-        <v>9</v>
+        <v>0.0002527236938476562</v>
       </c>
       <c r="G129" t="n">
-        <v>0.0002527236938476562</v>
-      </c>
-      <c r="H129" t="n">
         <v>104</v>
       </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
       <c r="I129" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
-      <c r="J129" t="inlineStr">
         <is>
           <t>general</t>
         </is>
@@ -5604,37 +5215,34 @@
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
-      <c r="B130" t="n">
-        <v>8</v>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>dw2048</t>
+        </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>dw2048.mtx</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>MP</t>
-        </is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>0.9782280548675101</v>
       </c>
       <c r="E130" t="n">
-        <v>0.9782280548675101</v>
+        <v>100</v>
       </c>
       <c r="F130" t="n">
-        <v>100</v>
+        <v>0.1025106906890869</v>
       </c>
       <c r="G130" t="n">
-        <v>0.1025106906890869</v>
-      </c>
-      <c r="H130" t="n">
         <v>2048</v>
       </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
       <c r="I130" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
-      <c r="J130" t="inlineStr">
         <is>
           <t>general</t>
         </is>
@@ -5644,37 +5252,34 @@
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
-      <c r="B131" t="n">
-        <v>9</v>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>dw2048</t>
+        </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>dw2048.mtx</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>MP_Aitken</t>
-        </is>
+          <t>MP_Aitken</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>0.9784157480322903</v>
       </c>
       <c r="E131" t="n">
-        <v>0.9784157480322903</v>
+        <v>64</v>
       </c>
       <c r="F131" t="n">
-        <v>64</v>
+        <v>0.07218813896179199</v>
       </c>
       <c r="G131" t="n">
-        <v>0.07218813896179199</v>
-      </c>
-      <c r="H131" t="n">
         <v>2048</v>
       </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
       <c r="I131" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
-      <c r="J131" t="inlineStr">
         <is>
           <t>general</t>
         </is>
@@ -5684,37 +5289,34 @@
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
-      <c r="B132" t="n">
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>ck400</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>5.502385709075823</v>
+      </c>
+      <c r="E132" t="n">
         <v>10</v>
       </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>ck400.mtx</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>MP</t>
-        </is>
-      </c>
-      <c r="E132" t="n">
-        <v>5.502385709075823</v>
-      </c>
       <c r="F132" t="n">
-        <v>10</v>
+        <v>0.0004572868347167969</v>
       </c>
       <c r="G132" t="n">
-        <v>0.0004572868347167969</v>
-      </c>
-      <c r="H132" t="n">
         <v>400</v>
       </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
       <c r="I132" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
-      <c r="J132" t="inlineStr">
         <is>
           <t>general</t>
         </is>
@@ -5724,37 +5326,34 @@
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
-      <c r="B133" t="n">
-        <v>11</v>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>ck400</t>
+        </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>ck400.mtx</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>MP_Aitken</t>
-        </is>
+          <t>MP_Aitken</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v>5.502377894478053</v>
       </c>
       <c r="E133" t="n">
-        <v>5.502377894478053</v>
+        <v>9</v>
       </c>
       <c r="F133" t="n">
-        <v>9</v>
+        <v>0.0003921985626220703</v>
       </c>
       <c r="G133" t="n">
-        <v>0.0003921985626220703</v>
-      </c>
-      <c r="H133" t="n">
         <v>400</v>
       </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
       <c r="I133" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
-      <c r="J133" t="inlineStr">
         <is>
           <t>general</t>
         </is>
@@ -5764,37 +5363,34 @@
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
-      <c r="B134" t="n">
-        <v>12</v>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>dwt_162</t>
+        </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>dwt_162.mtx</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>MP</t>
-        </is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>8.131173666984399</v>
       </c>
       <c r="E134" t="n">
-        <v>8.131173666984399</v>
+        <v>60</v>
       </c>
       <c r="F134" t="n">
-        <v>60</v>
+        <v>0.001169681549072266</v>
       </c>
       <c r="G134" t="n">
-        <v>0.001169681549072266</v>
-      </c>
-      <c r="H134" t="n">
         <v>162</v>
       </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>pattern</t>
+        </is>
+      </c>
       <c r="I134" t="inlineStr">
-        <is>
-          <t>pattern</t>
-        </is>
-      </c>
-      <c r="J134" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -5804,37 +5400,34 @@
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
-      <c r="B135" t="n">
-        <v>13</v>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>dwt_162</t>
+        </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>dwt_162.mtx</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>MP_Aitken</t>
-        </is>
+          <t>MP_Aitken</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>8.132165227695589</v>
       </c>
       <c r="E135" t="n">
-        <v>8.132165227695589</v>
+        <v>33</v>
       </c>
       <c r="F135" t="n">
-        <v>33</v>
+        <v>0.0006844997406005859</v>
       </c>
       <c r="G135" t="n">
-        <v>0.0006844997406005859</v>
-      </c>
-      <c r="H135" t="n">
         <v>162</v>
       </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>pattern</t>
+        </is>
+      </c>
       <c r="I135" t="inlineStr">
-        <is>
-          <t>pattern</t>
-        </is>
-      </c>
-      <c r="J135" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -5844,37 +5437,34 @@
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
-      <c r="B136" t="n">
-        <v>14</v>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>dwt_221</t>
+        </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>dwt_221.mtx</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>MP</t>
-        </is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>8.222266227162402</v>
       </c>
       <c r="E136" t="n">
-        <v>8.222266227162402</v>
+        <v>52</v>
       </c>
       <c r="F136" t="n">
-        <v>52</v>
+        <v>0.001112699508666992</v>
       </c>
       <c r="G136" t="n">
-        <v>0.001112699508666992</v>
-      </c>
-      <c r="H136" t="n">
         <v>221</v>
       </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>pattern</t>
+        </is>
+      </c>
       <c r="I136" t="inlineStr">
-        <is>
-          <t>pattern</t>
-        </is>
-      </c>
-      <c r="J136" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -5884,37 +5474,34 @@
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
-      <c r="B137" t="n">
-        <v>15</v>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>dwt_221</t>
+        </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>dwt_221.mtx</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>MP_Aitken</t>
-        </is>
+          <t>MP_Aitken</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>8.221257129721657</v>
       </c>
       <c r="E137" t="n">
-        <v>8.221257129721657</v>
+        <v>11</v>
       </c>
       <c r="F137" t="n">
-        <v>11</v>
+        <v>0.0002899169921875</v>
       </c>
       <c r="G137" t="n">
-        <v>0.0002899169921875</v>
-      </c>
-      <c r="H137" t="n">
         <v>221</v>
       </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>pattern</t>
+        </is>
+      </c>
       <c r="I137" t="inlineStr">
-        <is>
-          <t>pattern</t>
-        </is>
-      </c>
-      <c r="J137" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -5924,37 +5511,34 @@
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
-      <c r="B138" t="n">
-        <v>16</v>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>dwt_193</t>
+        </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>dwt_193.mtx</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>MP</t>
-        </is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
+        <v>21.10392161420017</v>
       </c>
       <c r="E138" t="n">
-        <v>21.10392161420017</v>
+        <v>17</v>
       </c>
       <c r="F138" t="n">
-        <v>17</v>
+        <v>0.0003437995910644531</v>
       </c>
       <c r="G138" t="n">
-        <v>0.0003437995910644531</v>
-      </c>
-      <c r="H138" t="n">
         <v>193</v>
       </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>pattern</t>
+        </is>
+      </c>
       <c r="I138" t="inlineStr">
-        <is>
-          <t>pattern</t>
-        </is>
-      </c>
-      <c r="J138" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -5964,37 +5548,34 @@
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
-      <c r="B139" t="n">
-        <v>17</v>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>dwt_193</t>
+        </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>dwt_193.mtx</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>MP_Aitken</t>
-        </is>
+          <t>MP_Aitken</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
+        <v>21.10433304028249</v>
       </c>
       <c r="E139" t="n">
-        <v>21.10433304028249</v>
+        <v>14</v>
       </c>
       <c r="F139" t="n">
-        <v>14</v>
+        <v>0.0003402233123779297</v>
       </c>
       <c r="G139" t="n">
-        <v>0.0003402233123779297</v>
-      </c>
-      <c r="H139" t="n">
         <v>193</v>
       </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>pattern</t>
+        </is>
+      </c>
       <c r="I139" t="inlineStr">
-        <is>
-          <t>pattern</t>
-        </is>
-      </c>
-      <c r="J139" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -6004,37 +5585,34 @@
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
-      <c r="B140" t="n">
-        <v>18</v>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>can_1072</t>
+        </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>can_1072.mtx</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>MP</t>
-        </is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>14.88215804242096</v>
       </c>
       <c r="E140" t="n">
-        <v>14.88215804242096</v>
+        <v>45</v>
       </c>
       <c r="F140" t="n">
-        <v>45</v>
+        <v>0.01361513137817383</v>
       </c>
       <c r="G140" t="n">
-        <v>0.01361513137817383</v>
-      </c>
-      <c r="H140" t="n">
         <v>1072</v>
       </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>pattern</t>
+        </is>
+      </c>
       <c r="I140" t="inlineStr">
-        <is>
-          <t>pattern</t>
-        </is>
-      </c>
-      <c r="J140" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -6044,37 +5622,34 @@
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
-      <c r="B141" t="n">
-        <v>19</v>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>can_1072</t>
+        </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>can_1072.mtx</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>MP_Aitken</t>
-        </is>
+          <t>MP_Aitken</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v>14.88298457662608</v>
       </c>
       <c r="E141" t="n">
-        <v>14.88298457662608</v>
+        <v>29</v>
       </c>
       <c r="F141" t="n">
-        <v>29</v>
+        <v>0.007135629653930664</v>
       </c>
       <c r="G141" t="n">
-        <v>0.007135629653930664</v>
-      </c>
-      <c r="H141" t="n">
         <v>1072</v>
       </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>pattern</t>
+        </is>
+      </c>
       <c r="I141" t="inlineStr">
-        <is>
-          <t>pattern</t>
-        </is>
-      </c>
-      <c r="J141" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -6084,37 +5659,34 @@
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
-      <c r="B142" t="n">
-        <v>0</v>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>dwt_1005</t>
+        </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>dwt_1005.mtx</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>MP</t>
-        </is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v>16.40635975914216</v>
       </c>
       <c r="E142" t="n">
-        <v>16.40635975914216</v>
+        <v>14</v>
       </c>
       <c r="F142" t="n">
-        <v>14</v>
+        <v>0.02496790885925293</v>
       </c>
       <c r="G142" t="n">
-        <v>0.02496790885925293</v>
-      </c>
-      <c r="H142" t="n">
         <v>1005</v>
       </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>pattern</t>
+        </is>
+      </c>
       <c r="I142" t="inlineStr">
-        <is>
-          <t>pattern</t>
-        </is>
-      </c>
-      <c r="J142" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -6124,37 +5696,34 @@
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
-      <c r="B143" t="n">
-        <v>1</v>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>dwt_1005</t>
+        </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>dwt_1005.mtx</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>MP_Aitken</t>
-        </is>
+          <t>MP_Aitken</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
+        <v>16.40643403711349</v>
       </c>
       <c r="E143" t="n">
-        <v>16.40643403711349</v>
+        <v>12</v>
       </c>
       <c r="F143" t="n">
-        <v>12</v>
+        <v>0.001543760299682617</v>
       </c>
       <c r="G143" t="n">
-        <v>0.001543760299682617</v>
-      </c>
-      <c r="H143" t="n">
         <v>1005</v>
       </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>pattern</t>
+        </is>
+      </c>
       <c r="I143" t="inlineStr">
-        <is>
-          <t>pattern</t>
-        </is>
-      </c>
-      <c r="J143" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -6164,37 +5733,34 @@
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
-      <c r="B144" t="n">
-        <v>2</v>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>dwt_1007</t>
+        </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>dwt_1007.mtx</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>MP</t>
-        </is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
+        <v>8.912431480213071</v>
       </c>
       <c r="E144" t="n">
-        <v>8.912431480213071</v>
+        <v>61</v>
       </c>
       <c r="F144" t="n">
-        <v>61</v>
+        <v>0.01002287864685059</v>
       </c>
       <c r="G144" t="n">
-        <v>0.01002287864685059</v>
-      </c>
-      <c r="H144" t="n">
         <v>1007</v>
       </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>pattern</t>
+        </is>
+      </c>
       <c r="I144" t="inlineStr">
-        <is>
-          <t>pattern</t>
-        </is>
-      </c>
-      <c r="J144" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -6204,37 +5770,34 @@
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
-      <c r="B145" t="n">
-        <v>3</v>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>dwt_1007</t>
+        </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>dwt_1007.mtx</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>MP_Aitken</t>
-        </is>
+          <t>MP_Aitken</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v>8.913562817502868</v>
       </c>
       <c r="E145" t="n">
-        <v>8.913562817502868</v>
+        <v>45</v>
       </c>
       <c r="F145" t="n">
-        <v>45</v>
+        <v>0.00733184814453125</v>
       </c>
       <c r="G145" t="n">
-        <v>0.00733184814453125</v>
-      </c>
-      <c r="H145" t="n">
         <v>1007</v>
       </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>pattern</t>
+        </is>
+      </c>
       <c r="I145" t="inlineStr">
-        <is>
-          <t>pattern</t>
-        </is>
-      </c>
-      <c r="J145" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -6244,37 +5807,34 @@
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
-      <c r="B146" t="n">
-        <v>4</v>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>herman4</t>
+        </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>herman4.mtx</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>MP</t>
-        </is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D146" t="n">
+        <v>66.48767021742641</v>
       </c>
       <c r="E146" t="n">
-        <v>66.48767021742641</v>
+        <v>100</v>
       </c>
       <c r="F146" t="n">
-        <v>100</v>
+        <v>0.02747368812561035</v>
       </c>
       <c r="G146" t="n">
-        <v>0.02747368812561035</v>
-      </c>
-      <c r="H146" t="n">
         <v>1104</v>
       </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
       <c r="I146" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
-      <c r="J146" t="inlineStr">
         <is>
           <t>general</t>
         </is>
@@ -6284,37 +5844,34 @@
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
-      <c r="B147" t="n">
-        <v>5</v>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>herman4</t>
+        </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>herman4.mtx</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>MP_Aitken</t>
-        </is>
+          <t>MP_Aitken</t>
+        </is>
+      </c>
+      <c r="D147" t="n">
+        <v>66.5125181458945</v>
       </c>
       <c r="E147" t="n">
-        <v>66.5125181458945</v>
+        <v>39</v>
       </c>
       <c r="F147" t="n">
-        <v>39</v>
+        <v>0.0104522705078125</v>
       </c>
       <c r="G147" t="n">
-        <v>0.0104522705078125</v>
-      </c>
-      <c r="H147" t="n">
         <v>1104</v>
       </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
       <c r="I147" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
-      <c r="J147" t="inlineStr">
         <is>
           <t>general</t>
         </is>
@@ -6324,37 +5881,34 @@
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
-      <c r="B148" t="n">
-        <v>6</v>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>gr_30_30</t>
+        </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>gr_30_30.mtx</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>MP</t>
-        </is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D148" t="n">
+        <v>11.86393030934931</v>
       </c>
       <c r="E148" t="n">
-        <v>11.86393030934931</v>
+        <v>113</v>
       </c>
       <c r="F148" t="n">
-        <v>113</v>
+        <v>0.1763081550598145</v>
       </c>
       <c r="G148" t="n">
-        <v>0.1763081550598145</v>
-      </c>
-      <c r="H148" t="n">
         <v>900</v>
       </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>integer</t>
+        </is>
+      </c>
       <c r="I148" t="inlineStr">
-        <is>
-          <t>integer</t>
-        </is>
-      </c>
-      <c r="J148" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -6364,37 +5918,34 @@
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
-      <c r="B149" t="n">
-        <v>7</v>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>gr_30_30</t>
+        </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>gr_30_30.mtx</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>MP_Aitken</t>
-        </is>
+          <t>MP_Aitken</t>
+        </is>
+      </c>
+      <c r="D149" t="n">
+        <v>11.86933820735485</v>
       </c>
       <c r="E149" t="n">
-        <v>11.86933820735485</v>
+        <v>49</v>
       </c>
       <c r="F149" t="n">
-        <v>49</v>
+        <v>0.05591607093811035</v>
       </c>
       <c r="G149" t="n">
-        <v>0.05591607093811035</v>
-      </c>
-      <c r="H149" t="n">
         <v>900</v>
       </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>integer</t>
+        </is>
+      </c>
       <c r="I149" t="inlineStr">
-        <is>
-          <t>integer</t>
-        </is>
-      </c>
-      <c r="J149" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -6404,37 +5955,34 @@
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
-      <c r="B150" t="n">
-        <v>8</v>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>05r0100</t>
+        </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>05r0100.mtx</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>MP</t>
-        </is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D150" t="n">
+        <v>12.41717072759173</v>
       </c>
       <c r="E150" t="n">
-        <v>12.41717072759173</v>
+        <v>233</v>
       </c>
       <c r="F150" t="n">
-        <v>233</v>
+        <v>0.004272222518920898</v>
       </c>
       <c r="G150" t="n">
-        <v>0.004272222518920898</v>
-      </c>
-      <c r="H150" t="n">
         <v>236</v>
       </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
       <c r="I150" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
-      <c r="J150" t="inlineStr">
         <is>
           <t>general</t>
         </is>
@@ -6444,37 +5992,34 @@
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
-      <c r="B151" t="n">
-        <v>9</v>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>05r0100</t>
+        </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>05r0100.mtx</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>MP_Aitken</t>
-        </is>
+          <t>MP_Aitken</t>
+        </is>
+      </c>
+      <c r="D151" t="n">
+        <v>12.63404220515477</v>
       </c>
       <c r="E151" t="n">
-        <v>12.63404220515477</v>
+        <v>37</v>
       </c>
       <c r="F151" t="n">
-        <v>37</v>
+        <v>0.001007556915283203</v>
       </c>
       <c r="G151" t="n">
-        <v>0.001007556915283203</v>
-      </c>
-      <c r="H151" t="n">
         <v>236</v>
       </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
       <c r="I151" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
-      <c r="J151" t="inlineStr">
         <is>
           <t>general</t>
         </is>
@@ -6484,37 +6029,34 @@
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
-      <c r="B152" t="n">
-        <v>10</v>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>dwt_245</t>
+        </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>dwt_245.mtx</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>MP</t>
-        </is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D152" t="n">
+        <v>8.523646707394455</v>
       </c>
       <c r="E152" t="n">
-        <v>8.523646707394455</v>
+        <v>48</v>
       </c>
       <c r="F152" t="n">
-        <v>48</v>
+        <v>0.0009787082672119141</v>
       </c>
       <c r="G152" t="n">
-        <v>0.0009787082672119141</v>
-      </c>
-      <c r="H152" t="n">
         <v>245</v>
       </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>pattern</t>
+        </is>
+      </c>
       <c r="I152" t="inlineStr">
-        <is>
-          <t>pattern</t>
-        </is>
-      </c>
-      <c r="J152" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -6524,37 +6066,34 @@
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
-      <c r="B153" t="n">
-        <v>11</v>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>dwt_245</t>
+        </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>dwt_245.mtx</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>MP_Aitken</t>
-        </is>
+          <t>MP_Aitken</t>
+        </is>
+      </c>
+      <c r="D153" t="n">
+        <v>8.523875352301671</v>
       </c>
       <c r="E153" t="n">
-        <v>8.523875352301671</v>
+        <v>35</v>
       </c>
       <c r="F153" t="n">
-        <v>35</v>
+        <v>0.0006365776062011719</v>
       </c>
       <c r="G153" t="n">
-        <v>0.0006365776062011719</v>
-      </c>
-      <c r="H153" t="n">
         <v>245</v>
       </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>pattern</t>
+        </is>
+      </c>
       <c r="I153" t="inlineStr">
-        <is>
-          <t>pattern</t>
-        </is>
-      </c>
-      <c r="J153" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -6564,37 +6103,34 @@
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
-      <c r="B154" t="n">
-        <v>12</v>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>fidap005</t>
+        </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>fidap005.mtx</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>MP</t>
-        </is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D154" t="n">
+        <v>4359440.548861713</v>
       </c>
       <c r="E154" t="n">
-        <v>4359440.548861713</v>
+        <v>45</v>
       </c>
       <c r="F154" t="n">
-        <v>45</v>
+        <v>0.0007212162017822266</v>
       </c>
       <c r="G154" t="n">
-        <v>0.0007212162017822266</v>
-      </c>
-      <c r="H154" t="n">
         <v>27</v>
       </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
       <c r="I154" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
-      <c r="J154" t="inlineStr">
         <is>
           <t>general</t>
         </is>
@@ -6604,37 +6140,34 @@
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
-      <c r="B155" t="n">
-        <v>13</v>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>fidap005</t>
+        </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>fidap005.mtx</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>MP_Aitken</t>
-        </is>
+          <t>MP_Aitken</t>
+        </is>
+      </c>
+      <c r="D155" t="n">
+        <v>4359599.815813746</v>
       </c>
       <c r="E155" t="n">
-        <v>4359599.815813746</v>
+        <v>30</v>
       </c>
       <c r="F155" t="n">
-        <v>30</v>
+        <v>0.0004839897155761719</v>
       </c>
       <c r="G155" t="n">
-        <v>0.0004839897155761719</v>
-      </c>
-      <c r="H155" t="n">
         <v>27</v>
       </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
       <c r="I155" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
-      <c r="J155" t="inlineStr">
         <is>
           <t>general</t>
         </is>
@@ -6644,37 +6177,34 @@
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
-      <c r="B156" t="n">
-        <v>14</v>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>dwt_1242</t>
+        </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>dwt_1242.mtx</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>MP</t>
-        </is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D156" t="n">
+        <v>9.38929622309684</v>
       </c>
       <c r="E156" t="n">
-        <v>9.38929622309684</v>
+        <v>105</v>
       </c>
       <c r="F156" t="n">
-        <v>105</v>
+        <v>0.04659938812255859</v>
       </c>
       <c r="G156" t="n">
-        <v>0.04659938812255859</v>
-      </c>
-      <c r="H156" t="n">
         <v>1242</v>
       </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>pattern</t>
+        </is>
+      </c>
       <c r="I156" t="inlineStr">
-        <is>
-          <t>pattern</t>
-        </is>
-      </c>
-      <c r="J156" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -6684,37 +6214,34 @@
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
-      <c r="B157" t="n">
-        <v>15</v>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>dwt_1242</t>
+        </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>dwt_1242.mtx</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>MP_Aitken</t>
-        </is>
+          <t>MP_Aitken</t>
+        </is>
+      </c>
+      <c r="D157" t="n">
+        <v>9.394188915458207</v>
       </c>
       <c r="E157" t="n">
-        <v>9.394188915458207</v>
+        <v>37</v>
       </c>
       <c r="F157" t="n">
-        <v>37</v>
+        <v>0.01630783081054688</v>
       </c>
       <c r="G157" t="n">
-        <v>0.01630783081054688</v>
-      </c>
-      <c r="H157" t="n">
         <v>1242</v>
       </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>pattern</t>
+        </is>
+      </c>
       <c r="I157" t="inlineStr">
-        <is>
-          <t>pattern</t>
-        </is>
-      </c>
-      <c r="J157" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -6724,37 +6251,34 @@
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
-      <c r="B158" t="n">
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>bcsstm23</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>MP</t>
+        </is>
+      </c>
+      <c r="D158" t="n">
+        <v>8270300.23229669</v>
+      </c>
+      <c r="E158" t="n">
         <v>16</v>
       </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>bcsstm23.mtx</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>MP</t>
-        </is>
-      </c>
-      <c r="E158" t="n">
-        <v>8270300.23229669</v>
-      </c>
       <c r="F158" t="n">
-        <v>16</v>
+        <v>0.05994796752929688</v>
       </c>
       <c r="G158" t="n">
-        <v>0.05994796752929688</v>
-      </c>
-      <c r="H158" t="n">
         <v>3134</v>
       </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
       <c r="I158" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
-      <c r="J158" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>
@@ -6764,37 +6288,34 @@
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
-      <c r="B159" t="n">
-        <v>17</v>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>bcsstm23</t>
+        </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>bcsstm23.mtx</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>MP_Aitken</t>
-        </is>
+          <t>MP_Aitken</t>
+        </is>
+      </c>
+      <c r="D159" t="n">
+        <v>8270311.116852832</v>
       </c>
       <c r="E159" t="n">
-        <v>8270311.116852832</v>
+        <v>11</v>
       </c>
       <c r="F159" t="n">
-        <v>11</v>
+        <v>0.03480172157287598</v>
       </c>
       <c r="G159" t="n">
-        <v>0.03480172157287598</v>
-      </c>
-      <c r="H159" t="n">
         <v>3134</v>
       </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>real</t>
+        </is>
+      </c>
       <c r="I159" t="inlineStr">
-        <is>
-          <t>real</t>
-        </is>
-      </c>
-      <c r="J159" t="inlineStr">
         <is>
           <t>symmetric</t>
         </is>

--- a/resultados/tabelas_final/resultado_MP_final.xlsx
+++ b/resultados/tabelas_final/resultado_MP_final.xlsx
@@ -496,7 +496,7 @@
         <v>113</v>
       </c>
       <c r="F2" t="n">
-        <v>0.003821849822998047</v>
+        <v>0.009521007537841797</v>
       </c>
       <c r="G2" t="n">
         <v>130</v>
@@ -514,7 +514,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -533,7 +533,7 @@
         <v>30</v>
       </c>
       <c r="F3" t="n">
-        <v>0.001075029373168945</v>
+        <v>0.001701593399047852</v>
       </c>
       <c r="G3" t="n">
         <v>274</v>
@@ -551,7 +551,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -570,7 +570,7 @@
         <v>40</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0008537769317626953</v>
+        <v>0.001505136489868164</v>
       </c>
       <c r="G4" t="n">
         <v>49</v>
@@ -588,7 +588,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -607,7 +607,7 @@
         <v>35</v>
       </c>
       <c r="F5" t="n">
-        <v>0.001262903213500977</v>
+        <v>0.001816511154174805</v>
       </c>
       <c r="G5" t="n">
         <v>118</v>
@@ -625,7 +625,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -644,7 +644,7 @@
         <v>22</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0120689868927002</v>
+        <v>0.0170900821685791</v>
       </c>
       <c r="G6" t="n">
         <v>1138</v>
@@ -662,7 +662,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -681,7 +681,7 @@
         <v>4</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0009889602661132812</v>
+        <v>0.001264095306396484</v>
       </c>
       <c r="G7" t="n">
         <v>685</v>
@@ -699,7 +699,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -718,7 +718,7 @@
         <v>45</v>
       </c>
       <c r="F8" t="n">
-        <v>0.003042697906494141</v>
+        <v>0.003722190856933594</v>
       </c>
       <c r="G8" t="n">
         <v>292</v>
@@ -736,7 +736,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -755,7 +755,7 @@
         <v>4</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0004377365112304688</v>
+        <v>0.0005929470062255859</v>
       </c>
       <c r="G9" t="n">
         <v>494</v>
@@ -773,7 +773,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -792,7 +792,7 @@
         <v>27</v>
       </c>
       <c r="F10" t="n">
-        <v>0.001199960708618164</v>
+        <v>0.001266717910766602</v>
       </c>
       <c r="G10" t="n">
         <v>85</v>
@@ -810,7 +810,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -829,7 +829,7 @@
         <v>4</v>
       </c>
       <c r="F11" t="n">
-        <v>0.001955270767211914</v>
+        <v>0.00128626823425293</v>
       </c>
       <c r="G11" t="n">
         <v>662</v>
@@ -847,7 +847,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         <v>81</v>
       </c>
       <c r="F12" t="n">
-        <v>0.007412433624267578</v>
+        <v>0.007981777191162109</v>
       </c>
       <c r="G12" t="n">
         <v>443</v>
@@ -884,7 +884,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -903,7 +903,7 @@
         <v>134</v>
       </c>
       <c r="F13" t="n">
-        <v>0.003579854965209961</v>
+        <v>0.005933046340942383</v>
       </c>
       <c r="G13" t="n">
         <v>48</v>
@@ -921,7 +921,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -940,7 +940,7 @@
         <v>186</v>
       </c>
       <c r="F14" t="n">
-        <v>3.517214775085449</v>
+        <v>3.014745950698853</v>
       </c>
       <c r="G14" t="n">
         <v>5300</v>
@@ -958,7 +958,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
         <v>124</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1400530338287354</v>
+        <v>0.1355621814727783</v>
       </c>
       <c r="G15" t="n">
         <v>1454</v>
@@ -995,7 +995,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         <v>99</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1623399257659912</v>
+        <v>0.1409018039703369</v>
       </c>
       <c r="G16" t="n">
         <v>1612</v>
@@ -1032,7 +1032,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1051,7 +1051,7 @@
         <v>25</v>
       </c>
       <c r="F17" t="n">
-        <v>0.002558231353759766</v>
+        <v>0.001869678497314453</v>
       </c>
       <c r="G17" t="n">
         <v>112</v>
@@ -1069,7 +1069,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1088,7 +1088,7 @@
         <v>28</v>
       </c>
       <c r="F18" t="n">
-        <v>0.001298189163208008</v>
+        <v>0.001503705978393555</v>
       </c>
       <c r="G18" t="n">
         <v>66</v>
@@ -1106,7 +1106,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1125,7 +1125,7 @@
         <v>38</v>
       </c>
       <c r="F19" t="n">
-        <v>0.002397060394287109</v>
+        <v>0.002492427825927734</v>
       </c>
       <c r="G19" t="n">
         <v>153</v>
@@ -1143,7 +1143,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1162,7 +1162,7 @@
         <v>152</v>
       </c>
       <c r="F20" t="n">
-        <v>0.3266172409057617</v>
+        <v>0.3230698108673096</v>
       </c>
       <c r="G20" t="n">
         <v>1624</v>
@@ -1180,7 +1180,7 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1199,7 +1199,7 @@
         <v>18</v>
       </c>
       <c r="F21" t="n">
-        <v>0.001456022262573242</v>
+        <v>0.001024246215820312</v>
       </c>
       <c r="G21" t="n">
         <v>132</v>
@@ -1217,7 +1217,7 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1236,7 +1236,7 @@
         <v>28</v>
       </c>
       <c r="F22" t="n">
-        <v>0.04023289680480957</v>
+        <v>0.04542231559753418</v>
       </c>
       <c r="G22" t="n">
         <v>1473</v>
@@ -1254,7 +1254,7 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1273,7 +1273,7 @@
         <v>55</v>
       </c>
       <c r="F23" t="n">
-        <v>0.03548407554626465</v>
+        <v>0.0417335033416748</v>
       </c>
       <c r="G23" t="n">
         <v>1086</v>
@@ -1291,7 +1291,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1310,7 +1310,7 @@
         <v>176</v>
       </c>
       <c r="F24" t="n">
-        <v>0.4643244743347168</v>
+        <v>0.4212357997894287</v>
       </c>
       <c r="G24" t="n">
         <v>2003</v>
@@ -1328,7 +1328,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -1347,7 +1347,7 @@
         <v>79</v>
       </c>
       <c r="F25" t="n">
-        <v>0.7373359203338623</v>
+        <v>0.6927108764648438</v>
       </c>
       <c r="G25" t="n">
         <v>3948</v>
@@ -1365,7 +1365,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1384,7 +1384,7 @@
         <v>21</v>
       </c>
       <c r="F26" t="n">
-        <v>0.001830577850341797</v>
+        <v>0.002181291580200195</v>
       </c>
       <c r="G26" t="n">
         <v>420</v>
@@ -1402,7 +1402,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1421,7 +1421,7 @@
         <v>220</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0967552661895752</v>
+        <v>0.08947300910949707</v>
       </c>
       <c r="G27" t="n">
         <v>1083</v>
@@ -1439,7 +1439,7 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1458,7 +1458,7 @@
         <v>28</v>
       </c>
       <c r="F28" t="n">
-        <v>0.04145407676696777</v>
+        <v>0.03387808799743652</v>
       </c>
       <c r="G28" t="n">
         <v>1473</v>
@@ -1476,7 +1476,7 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1495,7 +1495,7 @@
         <v>35</v>
       </c>
       <c r="F29" t="n">
-        <v>0.6684658527374268</v>
+        <v>0.5637950897216797</v>
       </c>
       <c r="G29" t="n">
         <v>4884</v>
@@ -1513,7 +1513,7 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1532,7 +1532,7 @@
         <v>21</v>
       </c>
       <c r="F30" t="n">
-        <v>0.002172231674194336</v>
+        <v>0.001439332962036133</v>
       </c>
       <c r="G30" t="n">
         <v>420</v>
@@ -1550,7 +1550,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -1569,7 +1569,7 @@
         <v>10</v>
       </c>
       <c r="F31" t="n">
-        <v>0.006533384323120117</v>
+        <v>0.005621194839477539</v>
       </c>
       <c r="G31" t="n">
         <v>1074</v>
@@ -1587,7 +1587,7 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1606,7 +1606,7 @@
         <v>30</v>
       </c>
       <c r="F32" t="n">
-        <v>0.002715587615966797</v>
+        <v>0.00462651252746582</v>
       </c>
       <c r="G32" t="n">
         <v>485</v>
@@ -1624,7 +1624,7 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1643,7 +1643,7 @@
         <v>23</v>
       </c>
       <c r="F33" t="n">
-        <v>3.56154727935791</v>
+        <v>2.916399002075195</v>
       </c>
       <c r="G33" t="n">
         <v>15439</v>
@@ -1661,7 +1661,7 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1680,7 +1680,7 @@
         <v>32</v>
       </c>
       <c r="F34" t="n">
-        <v>0.002031326293945312</v>
+        <v>0.001772165298461914</v>
       </c>
       <c r="G34" t="n">
         <v>138</v>
@@ -1698,7 +1698,7 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -1717,7 +1717,7 @@
         <v>46</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1257402896881104</v>
+        <v>0.1031303405761719</v>
       </c>
       <c r="G35" t="n">
         <v>1922</v>
@@ -1735,7 +1735,7 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1754,7 +1754,7 @@
         <v>85</v>
       </c>
       <c r="F36" t="n">
-        <v>0.07463860511779785</v>
+        <v>0.05020856857299805</v>
       </c>
       <c r="G36" t="n">
         <v>1224</v>
@@ -1772,7 +1772,7 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -1791,7 +1791,7 @@
         <v>335</v>
       </c>
       <c r="F37" t="n">
-        <v>3.052087306976318</v>
+        <v>2.907688856124878</v>
       </c>
       <c r="G37" t="n">
         <v>3600</v>
@@ -1809,7 +1809,7 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -1828,7 +1828,7 @@
         <v>23</v>
       </c>
       <c r="F38" t="n">
-        <v>0.008915424346923828</v>
+        <v>0.005071640014648438</v>
       </c>
       <c r="G38" t="n">
         <v>817</v>
@@ -1846,7 +1846,7 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -1865,7 +1865,7 @@
         <v>31</v>
       </c>
       <c r="F39" t="n">
-        <v>0.2346835136413574</v>
+        <v>0.1622166633605957</v>
       </c>
       <c r="G39" t="n">
         <v>3134</v>
@@ -1883,7 +1883,7 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -1902,7 +1902,7 @@
         <v>22</v>
       </c>
       <c r="F40" t="n">
-        <v>1.526764869689941</v>
+        <v>1.372621774673462</v>
       </c>
       <c r="G40" t="n">
         <v>10974</v>
@@ -1920,7 +1920,7 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -1939,7 +1939,7 @@
         <v>39</v>
       </c>
       <c r="F41" t="n">
-        <v>2.878980159759521</v>
+        <v>3.538639068603516</v>
       </c>
       <c r="G41" t="n">
         <v>11948</v>
@@ -1957,7 +1957,7 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -1976,7 +1976,7 @@
         <v>146</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0152435302734375</v>
+        <v>0.01441097259521484</v>
       </c>
       <c r="G42" t="n">
         <v>485</v>
@@ -1994,7 +1994,7 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -2013,7 +2013,7 @@
         <v>130</v>
       </c>
       <c r="F43" t="n">
-        <v>0.02584052085876465</v>
+        <v>0.02882289886474609</v>
       </c>
       <c r="G43" t="n">
         <v>817</v>
@@ -2031,7 +2031,7 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -2050,7 +2050,7 @@
         <v>18</v>
       </c>
       <c r="F44" t="n">
-        <v>0.01680088043212891</v>
+        <v>0.01891183853149414</v>
       </c>
       <c r="G44" t="n">
         <v>1473</v>
@@ -2068,7 +2068,7 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -2087,7 +2087,7 @@
         <v>29</v>
       </c>
       <c r="F45" t="n">
-        <v>0.001508712768554688</v>
+        <v>0.001318931579589844</v>
       </c>
       <c r="G45" t="n">
         <v>138</v>
@@ -2105,7 +2105,7 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -2124,7 +2124,7 @@
         <v>122</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1583681106567383</v>
+        <v>0.1474978923797607</v>
       </c>
       <c r="G46" t="n">
         <v>1473</v>
@@ -2142,7 +2142,7 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -2161,7 +2161,7 @@
         <v>103</v>
       </c>
       <c r="F47" t="n">
-        <v>0.008618354797363281</v>
+        <v>0.00829768180847168</v>
       </c>
       <c r="G47" t="n">
         <v>420</v>
@@ -2179,7 +2179,7 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>92</v>
+        <v>46</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -2198,7 +2198,7 @@
         <v>43</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09532308578491211</v>
+        <v>0.09645414352416992</v>
       </c>
       <c r="G48" t="n">
         <v>2003</v>
@@ -2216,7 +2216,7 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>94</v>
+        <v>47</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -2235,7 +2235,7 @@
         <v>29</v>
       </c>
       <c r="F49" t="n">
-        <v>0.02800536155700684</v>
+        <v>0.01490449905395508</v>
       </c>
       <c r="G49" t="n">
         <v>1074</v>
@@ -2253,7 +2253,7 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -2272,7 +2272,7 @@
         <v>3</v>
       </c>
       <c r="F50" t="n">
-        <v>0.001852989196777344</v>
+        <v>0.002291202545166016</v>
       </c>
       <c r="G50" t="n">
         <v>1083</v>
@@ -2290,7 +2290,7 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>98</v>
+        <v>49</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -2309,7 +2309,7 @@
         <v>141</v>
       </c>
       <c r="F51" t="n">
-        <v>0.04656791687011719</v>
+        <v>0.05806660652160645</v>
       </c>
       <c r="G51" t="n">
         <v>1086</v>
@@ -2327,7 +2327,7 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -2346,7 +2346,7 @@
         <v>58</v>
       </c>
       <c r="F52" t="n">
-        <v>0.002664089202880859</v>
+        <v>0.003152847290039062</v>
       </c>
       <c r="G52" t="n">
         <v>187</v>
@@ -2364,7 +2364,7 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>102</v>
+        <v>51</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -2383,7 +2383,7 @@
         <v>13</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0007159709930419922</v>
+        <v>0.0008068084716796875</v>
       </c>
       <c r="G53" t="n">
         <v>229</v>
@@ -2401,7 +2401,7 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>104</v>
+        <v>52</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -2420,7 +2420,7 @@
         <v>21</v>
       </c>
       <c r="F54" t="n">
-        <v>0.001032590866088867</v>
+        <v>0.001249074935913086</v>
       </c>
       <c r="G54" t="n">
         <v>161</v>
@@ -2438,7 +2438,7 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>106</v>
+        <v>53</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -2457,7 +2457,7 @@
         <v>11</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0006639957427978516</v>
+        <v>0.0007991790771484375</v>
       </c>
       <c r="G55" t="n">
         <v>292</v>
@@ -2475,7 +2475,7 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -2494,7 +2494,7 @@
         <v>42</v>
       </c>
       <c r="F56" t="n">
-        <v>0.01798152923583984</v>
+        <v>0.01744222640991211</v>
       </c>
       <c r="G56" t="n">
         <v>1054</v>
@@ -2512,7 +2512,7 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -2531,7 +2531,7 @@
         <v>43</v>
       </c>
       <c r="F57" t="n">
-        <v>0.002927541732788086</v>
+        <v>0.002670049667358398</v>
       </c>
       <c r="G57" t="n">
         <v>445</v>
@@ -2549,7 +2549,7 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>112</v>
+        <v>56</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -2568,7 +2568,7 @@
         <v>16</v>
       </c>
       <c r="F58" t="n">
-        <v>0.0009207725524902344</v>
+        <v>0.0008349418640136719</v>
       </c>
       <c r="G58" t="n">
         <v>256</v>
@@ -2586,7 +2586,7 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>114</v>
+        <v>57</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
         <v>18</v>
       </c>
       <c r="F59" t="n">
-        <v>0.001061439514160156</v>
+        <v>0.001006126403808594</v>
       </c>
       <c r="G59" t="n">
         <v>268</v>
@@ -2623,7 +2623,7 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>116</v>
+        <v>58</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -2642,7 +2642,7 @@
         <v>48</v>
       </c>
       <c r="F60" t="n">
-        <v>0.01223993301391602</v>
+        <v>0.006710290908813477</v>
       </c>
       <c r="G60" t="n">
         <v>715</v>
@@ -2660,7 +2660,7 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>118</v>
+        <v>59</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -2679,7 +2679,7 @@
         <v>74</v>
       </c>
       <c r="F61" t="n">
-        <v>0.01852846145629883</v>
+        <v>0.007341861724853516</v>
       </c>
       <c r="G61" t="n">
         <v>634</v>
@@ -2697,7 +2697,7 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -2716,7 +2716,7 @@
         <v>10</v>
       </c>
       <c r="F62" t="n">
-        <v>0.001064777374267578</v>
+        <v>0.0009942054748535156</v>
       </c>
       <c r="G62" t="n">
         <v>400</v>
@@ -2734,7 +2734,7 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>122</v>
+        <v>61</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -2753,7 +2753,7 @@
         <v>39</v>
       </c>
       <c r="F63" t="n">
-        <v>0.002971887588500977</v>
+        <v>0.00291895866394043</v>
       </c>
       <c r="G63" t="n">
         <v>234</v>
@@ -2771,7 +2771,7 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>124</v>
+        <v>62</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -2790,7 +2790,7 @@
         <v>10</v>
       </c>
       <c r="F64" t="n">
-        <v>0.0005304813385009766</v>
+        <v>0.0004093647003173828</v>
       </c>
       <c r="G64" t="n">
         <v>104</v>
@@ -2808,7 +2808,7 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>126</v>
+        <v>63</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -2827,7 +2827,7 @@
         <v>52</v>
       </c>
       <c r="F65" t="n">
-        <v>0.003967046737670898</v>
+        <v>0.002853631973266602</v>
       </c>
       <c r="G65" t="n">
         <v>221</v>
@@ -2845,7 +2845,7 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -2864,7 +2864,7 @@
         <v>100</v>
       </c>
       <c r="F66" t="n">
-        <v>0.2433764934539795</v>
+        <v>0.2080128192901611</v>
       </c>
       <c r="G66" t="n">
         <v>2048</v>
@@ -2882,7 +2882,7 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>130</v>
+        <v>65</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -2901,7 +2901,7 @@
         <v>60</v>
       </c>
       <c r="F67" t="n">
-        <v>0.002860069274902344</v>
+        <v>0.003392934799194336</v>
       </c>
       <c r="G67" t="n">
         <v>162</v>
@@ -2919,7 +2919,7 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>132</v>
+        <v>66</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -2938,7 +2938,7 @@
         <v>82</v>
       </c>
       <c r="F68" t="n">
-        <v>0.004383563995361328</v>
+        <v>0.00480341911315918</v>
       </c>
       <c r="G68" t="n">
         <v>198</v>
@@ -2956,7 +2956,7 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>134</v>
+        <v>67</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -2975,7 +2975,7 @@
         <v>48</v>
       </c>
       <c r="F69" t="n">
-        <v>0.001708745956420898</v>
+        <v>0.002576828002929688</v>
       </c>
       <c r="G69" t="n">
         <v>54</v>
@@ -2993,7 +2993,7 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>136</v>
+        <v>68</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -3012,7 +3012,7 @@
         <v>45</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0208585262298584</v>
+        <v>0.0307157039642334</v>
       </c>
       <c r="G70" t="n">
         <v>1072</v>
@@ -3030,7 +3030,7 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>138</v>
+        <v>69</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -3049,7 +3049,7 @@
         <v>17</v>
       </c>
       <c r="F71" t="n">
-        <v>0.001229286193847656</v>
+        <v>0.001011133193969727</v>
       </c>
       <c r="G71" t="n">
         <v>193</v>
@@ -3067,7 +3067,7 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -3086,7 +3086,7 @@
         <v>45</v>
       </c>
       <c r="F72" t="n">
-        <v>0.002341032028198242</v>
+        <v>0.001912117004394531</v>
       </c>
       <c r="G72" t="n">
         <v>27</v>
@@ -3104,7 +3104,7 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>142</v>
+        <v>71</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -3123,7 +3123,7 @@
         <v>113</v>
       </c>
       <c r="F73" t="n">
-        <v>0.2791383266448975</v>
+        <v>0.2820439338684082</v>
       </c>
       <c r="G73" t="n">
         <v>900</v>
@@ -3141,7 +3141,7 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>144</v>
+        <v>72</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -3160,7 +3160,7 @@
         <v>233</v>
       </c>
       <c r="F74" t="n">
-        <v>0.0149235725402832</v>
+        <v>0.01581978797912598</v>
       </c>
       <c r="G74" t="n">
         <v>236</v>
@@ -3178,7 +3178,7 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>146</v>
+        <v>73</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -3197,7 +3197,7 @@
         <v>16</v>
       </c>
       <c r="F75" t="n">
-        <v>0.07775616645812988</v>
+        <v>0.09607291221618652</v>
       </c>
       <c r="G75" t="n">
         <v>3134</v>
@@ -3215,7 +3215,7 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>148</v>
+        <v>74</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -3234,7 +3234,7 @@
         <v>14</v>
       </c>
       <c r="F76" t="n">
-        <v>0.006502628326416016</v>
+        <v>0.009660005569458008</v>
       </c>
       <c r="G76" t="n">
         <v>1005</v>
@@ -3252,7 +3252,7 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -3271,7 +3271,7 @@
         <v>100</v>
       </c>
       <c r="F77" t="n">
-        <v>0.04089736938476562</v>
+        <v>0.05750513076782227</v>
       </c>
       <c r="G77" t="n">
         <v>1104</v>
@@ -3289,7 +3289,7 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>152</v>
+        <v>76</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -3308,7 +3308,7 @@
         <v>105</v>
       </c>
       <c r="F78" t="n">
-        <v>0.06082487106323242</v>
+        <v>0.07469725608825684</v>
       </c>
       <c r="G78" t="n">
         <v>1242</v>
@@ -3326,7 +3326,7 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>154</v>
+        <v>77</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -3345,7 +3345,7 @@
         <v>61</v>
       </c>
       <c r="F79" t="n">
-        <v>0.0232701301574707</v>
+        <v>0.0301671028137207</v>
       </c>
       <c r="G79" t="n">
         <v>1007</v>
@@ -3363,7 +3363,7 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>156</v>
+        <v>78</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -3382,7 +3382,7 @@
         <v>48</v>
       </c>
       <c r="F80" t="n">
-        <v>0.002195835113525391</v>
+        <v>0.005911111831665039</v>
       </c>
       <c r="G80" t="n">
         <v>245</v>

--- a/resultados/tabelas_final/resultado_MP_final.xlsx
+++ b/resultados/tabelas_final/resultado_MP_final.xlsx
@@ -496,7 +496,7 @@
         <v>113</v>
       </c>
       <c r="F2" t="n">
-        <v>0.009521007537841797</v>
+        <v>0.009255886077880859</v>
       </c>
       <c r="G2" t="n">
         <v>130</v>
@@ -533,7 +533,7 @@
         <v>30</v>
       </c>
       <c r="F3" t="n">
-        <v>0.001701593399047852</v>
+        <v>0.00127720832824707</v>
       </c>
       <c r="G3" t="n">
         <v>274</v>
@@ -570,7 +570,7 @@
         <v>40</v>
       </c>
       <c r="F4" t="n">
-        <v>0.001505136489868164</v>
+        <v>0.001053094863891602</v>
       </c>
       <c r="G4" t="n">
         <v>49</v>
@@ -607,7 +607,7 @@
         <v>35</v>
       </c>
       <c r="F5" t="n">
-        <v>0.001816511154174805</v>
+        <v>0.001300811767578125</v>
       </c>
       <c r="G5" t="n">
         <v>118</v>
@@ -644,7 +644,7 @@
         <v>22</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0170900821685791</v>
+        <v>0.01144003868103027</v>
       </c>
       <c r="G6" t="n">
         <v>1138</v>
@@ -681,7 +681,7 @@
         <v>4</v>
       </c>
       <c r="F7" t="n">
-        <v>0.001264095306396484</v>
+        <v>0.0006477832794189453</v>
       </c>
       <c r="G7" t="n">
         <v>685</v>
@@ -718,7 +718,7 @@
         <v>45</v>
       </c>
       <c r="F8" t="n">
-        <v>0.003722190856933594</v>
+        <v>0.002919435501098633</v>
       </c>
       <c r="G8" t="n">
         <v>292</v>
@@ -755,7 +755,7 @@
         <v>4</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0005929470062255859</v>
+        <v>0.0005915164947509766</v>
       </c>
       <c r="G9" t="n">
         <v>494</v>
@@ -792,7 +792,7 @@
         <v>27</v>
       </c>
       <c r="F10" t="n">
-        <v>0.001266717910766602</v>
+        <v>0.001096487045288086</v>
       </c>
       <c r="G10" t="n">
         <v>85</v>
@@ -829,7 +829,7 @@
         <v>4</v>
       </c>
       <c r="F11" t="n">
-        <v>0.00128626823425293</v>
+        <v>0.0006766319274902344</v>
       </c>
       <c r="G11" t="n">
         <v>662</v>
@@ -866,7 +866,7 @@
         <v>81</v>
       </c>
       <c r="F12" t="n">
-        <v>0.007981777191162109</v>
+        <v>0.006893396377563477</v>
       </c>
       <c r="G12" t="n">
         <v>443</v>
@@ -903,7 +903,7 @@
         <v>134</v>
       </c>
       <c r="F13" t="n">
-        <v>0.005933046340942383</v>
+        <v>0.004590511322021484</v>
       </c>
       <c r="G13" t="n">
         <v>48</v>
@@ -940,7 +940,7 @@
         <v>186</v>
       </c>
       <c r="F14" t="n">
-        <v>3.014745950698853</v>
+        <v>2.70903491973877</v>
       </c>
       <c r="G14" t="n">
         <v>5300</v>
@@ -977,7 +977,7 @@
         <v>124</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1355621814727783</v>
+        <v>0.1368327140808105</v>
       </c>
       <c r="G15" t="n">
         <v>1454</v>
@@ -1014,7 +1014,7 @@
         <v>99</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1409018039703369</v>
+        <v>0.1379883289337158</v>
       </c>
       <c r="G16" t="n">
         <v>1612</v>
@@ -1051,7 +1051,7 @@
         <v>25</v>
       </c>
       <c r="F17" t="n">
-        <v>0.001869678497314453</v>
+        <v>0.001422882080078125</v>
       </c>
       <c r="G17" t="n">
         <v>112</v>
@@ -1088,7 +1088,7 @@
         <v>28</v>
       </c>
       <c r="F18" t="n">
-        <v>0.001503705978393555</v>
+        <v>0.001025676727294922</v>
       </c>
       <c r="G18" t="n">
         <v>66</v>
@@ -1125,7 +1125,7 @@
         <v>38</v>
       </c>
       <c r="F19" t="n">
-        <v>0.002492427825927734</v>
+        <v>0.002158164978027344</v>
       </c>
       <c r="G19" t="n">
         <v>153</v>
@@ -1162,7 +1162,7 @@
         <v>152</v>
       </c>
       <c r="F20" t="n">
-        <v>0.3230698108673096</v>
+        <v>0.2286422252655029</v>
       </c>
       <c r="G20" t="n">
         <v>1624</v>
@@ -1199,7 +1199,7 @@
         <v>18</v>
       </c>
       <c r="F21" t="n">
-        <v>0.001024246215820312</v>
+        <v>0.001001596450805664</v>
       </c>
       <c r="G21" t="n">
         <v>132</v>
@@ -1236,7 +1236,7 @@
         <v>28</v>
       </c>
       <c r="F22" t="n">
-        <v>0.04542231559753418</v>
+        <v>0.03204894065856934</v>
       </c>
       <c r="G22" t="n">
         <v>1473</v>
@@ -1273,7 +1273,7 @@
         <v>55</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0417335033416748</v>
+        <v>0.02433276176452637</v>
       </c>
       <c r="G23" t="n">
         <v>1086</v>
@@ -1310,7 +1310,7 @@
         <v>176</v>
       </c>
       <c r="F24" t="n">
-        <v>0.4212357997894287</v>
+        <v>0.3835117816925049</v>
       </c>
       <c r="G24" t="n">
         <v>2003</v>
@@ -1347,7 +1347,7 @@
         <v>79</v>
       </c>
       <c r="F25" t="n">
-        <v>0.6927108764648438</v>
+        <v>0.6262156963348389</v>
       </c>
       <c r="G25" t="n">
         <v>3948</v>
@@ -1384,7 +1384,7 @@
         <v>21</v>
       </c>
       <c r="F26" t="n">
-        <v>0.002181291580200195</v>
+        <v>0.00207209587097168</v>
       </c>
       <c r="G26" t="n">
         <v>420</v>
@@ -1421,7 +1421,7 @@
         <v>220</v>
       </c>
       <c r="F27" t="n">
-        <v>0.08947300910949707</v>
+        <v>0.07986044883728027</v>
       </c>
       <c r="G27" t="n">
         <v>1083</v>
@@ -1458,7 +1458,7 @@
         <v>28</v>
       </c>
       <c r="F28" t="n">
-        <v>0.03387808799743652</v>
+        <v>0.03203034400939941</v>
       </c>
       <c r="G28" t="n">
         <v>1473</v>
@@ -1495,7 +1495,7 @@
         <v>35</v>
       </c>
       <c r="F29" t="n">
-        <v>0.5637950897216797</v>
+        <v>0.4337069988250732</v>
       </c>
       <c r="G29" t="n">
         <v>4884</v>
@@ -1532,7 +1532,7 @@
         <v>21</v>
       </c>
       <c r="F30" t="n">
-        <v>0.001439332962036133</v>
+        <v>0.001778602600097656</v>
       </c>
       <c r="G30" t="n">
         <v>420</v>
@@ -1569,7 +1569,7 @@
         <v>10</v>
       </c>
       <c r="F31" t="n">
-        <v>0.005621194839477539</v>
+        <v>0.005025625228881836</v>
       </c>
       <c r="G31" t="n">
         <v>1074</v>
@@ -1606,7 +1606,7 @@
         <v>30</v>
       </c>
       <c r="F32" t="n">
-        <v>0.00462651252746582</v>
+        <v>0.002715826034545898</v>
       </c>
       <c r="G32" t="n">
         <v>485</v>
@@ -1643,7 +1643,7 @@
         <v>23</v>
       </c>
       <c r="F33" t="n">
-        <v>2.916399002075195</v>
+        <v>2.953005075454712</v>
       </c>
       <c r="G33" t="n">
         <v>15439</v>
@@ -1680,7 +1680,7 @@
         <v>32</v>
       </c>
       <c r="F34" t="n">
-        <v>0.001772165298461914</v>
+        <v>0.002160072326660156</v>
       </c>
       <c r="G34" t="n">
         <v>138</v>
@@ -1717,7 +1717,7 @@
         <v>46</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1031303405761719</v>
+        <v>0.09817838668823242</v>
       </c>
       <c r="G35" t="n">
         <v>1922</v>
@@ -1754,7 +1754,7 @@
         <v>85</v>
       </c>
       <c r="F36" t="n">
-        <v>0.05020856857299805</v>
+        <v>0.04805183410644531</v>
       </c>
       <c r="G36" t="n">
         <v>1224</v>
@@ -1791,7 +1791,7 @@
         <v>335</v>
       </c>
       <c r="F37" t="n">
-        <v>2.907688856124878</v>
+        <v>2.3714439868927</v>
       </c>
       <c r="G37" t="n">
         <v>3600</v>
@@ -1828,7 +1828,7 @@
         <v>23</v>
       </c>
       <c r="F38" t="n">
-        <v>0.005071640014648438</v>
+        <v>0.00549626350402832</v>
       </c>
       <c r="G38" t="n">
         <v>817</v>
@@ -1865,7 +1865,7 @@
         <v>31</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1622166633605957</v>
+        <v>0.1464524269104004</v>
       </c>
       <c r="G39" t="n">
         <v>3134</v>
@@ -1902,7 +1902,7 @@
         <v>22</v>
       </c>
       <c r="F40" t="n">
-        <v>1.372621774673462</v>
+        <v>1.322331666946411</v>
       </c>
       <c r="G40" t="n">
         <v>10974</v>
@@ -1939,7 +1939,7 @@
         <v>39</v>
       </c>
       <c r="F41" t="n">
-        <v>3.538639068603516</v>
+        <v>2.89242959022522</v>
       </c>
       <c r="G41" t="n">
         <v>11948</v>
@@ -1976,7 +1976,7 @@
         <v>146</v>
       </c>
       <c r="F42" t="n">
-        <v>0.01441097259521484</v>
+        <v>0.0180363655090332</v>
       </c>
       <c r="G42" t="n">
         <v>485</v>
@@ -2013,7 +2013,7 @@
         <v>130</v>
       </c>
       <c r="F43" t="n">
-        <v>0.02882289886474609</v>
+        <v>0.02767181396484375</v>
       </c>
       <c r="G43" t="n">
         <v>817</v>
@@ -2050,7 +2050,7 @@
         <v>18</v>
       </c>
       <c r="F44" t="n">
-        <v>0.01891183853149414</v>
+        <v>0.0203402042388916</v>
       </c>
       <c r="G44" t="n">
         <v>1473</v>
@@ -2087,7 +2087,7 @@
         <v>29</v>
       </c>
       <c r="F45" t="n">
-        <v>0.001318931579589844</v>
+        <v>0.001642942428588867</v>
       </c>
       <c r="G45" t="n">
         <v>138</v>
@@ -2124,7 +2124,7 @@
         <v>122</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1474978923797607</v>
+        <v>0.1408455371856689</v>
       </c>
       <c r="G46" t="n">
         <v>1473</v>
@@ -2161,7 +2161,7 @@
         <v>103</v>
       </c>
       <c r="F47" t="n">
-        <v>0.00829768180847168</v>
+        <v>0.008116960525512695</v>
       </c>
       <c r="G47" t="n">
         <v>420</v>
@@ -2198,7 +2198,7 @@
         <v>43</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09645414352416992</v>
+        <v>0.0922396183013916</v>
       </c>
       <c r="G48" t="n">
         <v>2003</v>
@@ -2235,7 +2235,7 @@
         <v>29</v>
       </c>
       <c r="F49" t="n">
-        <v>0.01490449905395508</v>
+        <v>0.01360774040222168</v>
       </c>
       <c r="G49" t="n">
         <v>1074</v>
@@ -2272,7 +2272,7 @@
         <v>3</v>
       </c>
       <c r="F50" t="n">
-        <v>0.002291202545166016</v>
+        <v>0.001966238021850586</v>
       </c>
       <c r="G50" t="n">
         <v>1083</v>
@@ -2309,7 +2309,7 @@
         <v>141</v>
       </c>
       <c r="F51" t="n">
-        <v>0.05806660652160645</v>
+        <v>0.05230355262756348</v>
       </c>
       <c r="G51" t="n">
         <v>1086</v>
@@ -2346,7 +2346,7 @@
         <v>58</v>
       </c>
       <c r="F52" t="n">
-        <v>0.003152847290039062</v>
+        <v>0.002471685409545898</v>
       </c>
       <c r="G52" t="n">
         <v>187</v>
@@ -2383,7 +2383,7 @@
         <v>13</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0008068084716796875</v>
+        <v>0.0006289482116699219</v>
       </c>
       <c r="G53" t="n">
         <v>229</v>
@@ -2420,7 +2420,7 @@
         <v>21</v>
       </c>
       <c r="F54" t="n">
-        <v>0.001249074935913086</v>
+        <v>0.0009033679962158203</v>
       </c>
       <c r="G54" t="n">
         <v>161</v>
@@ -2457,7 +2457,7 @@
         <v>11</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0007991790771484375</v>
+        <v>0.0006520748138427734</v>
       </c>
       <c r="G55" t="n">
         <v>292</v>
@@ -2494,7 +2494,7 @@
         <v>42</v>
       </c>
       <c r="F56" t="n">
-        <v>0.01744222640991211</v>
+        <v>0.01803398132324219</v>
       </c>
       <c r="G56" t="n">
         <v>1054</v>
@@ -2531,7 +2531,7 @@
         <v>43</v>
       </c>
       <c r="F57" t="n">
-        <v>0.002670049667358398</v>
+        <v>0.003094673156738281</v>
       </c>
       <c r="G57" t="n">
         <v>445</v>
@@ -2568,7 +2568,7 @@
         <v>16</v>
       </c>
       <c r="F58" t="n">
-        <v>0.0008349418640136719</v>
+        <v>0.0008563995361328125</v>
       </c>
       <c r="G58" t="n">
         <v>256</v>
@@ -2605,7 +2605,7 @@
         <v>18</v>
       </c>
       <c r="F59" t="n">
-        <v>0.001006126403808594</v>
+        <v>0.001012086868286133</v>
       </c>
       <c r="G59" t="n">
         <v>268</v>
@@ -2642,7 +2642,7 @@
         <v>48</v>
       </c>
       <c r="F60" t="n">
-        <v>0.006710290908813477</v>
+        <v>0.00726771354675293</v>
       </c>
       <c r="G60" t="n">
         <v>715</v>
@@ -2679,7 +2679,7 @@
         <v>74</v>
       </c>
       <c r="F61" t="n">
-        <v>0.007341861724853516</v>
+        <v>0.008528470993041992</v>
       </c>
       <c r="G61" t="n">
         <v>634</v>
@@ -2716,7 +2716,7 @@
         <v>10</v>
       </c>
       <c r="F62" t="n">
-        <v>0.0009942054748535156</v>
+        <v>0.0007917881011962891</v>
       </c>
       <c r="G62" t="n">
         <v>400</v>
@@ -2753,7 +2753,7 @@
         <v>39</v>
       </c>
       <c r="F63" t="n">
-        <v>0.00291895866394043</v>
+        <v>0.002368450164794922</v>
       </c>
       <c r="G63" t="n">
         <v>234</v>
@@ -2790,7 +2790,7 @@
         <v>10</v>
       </c>
       <c r="F64" t="n">
-        <v>0.0004093647003173828</v>
+        <v>0.0004558563232421875</v>
       </c>
       <c r="G64" t="n">
         <v>104</v>
@@ -2827,7 +2827,7 @@
         <v>52</v>
       </c>
       <c r="F65" t="n">
-        <v>0.002853631973266602</v>
+        <v>0.003049373626708984</v>
       </c>
       <c r="G65" t="n">
         <v>221</v>
@@ -2864,7 +2864,7 @@
         <v>100</v>
       </c>
       <c r="F66" t="n">
-        <v>0.2080128192901611</v>
+        <v>0.2020490169525146</v>
       </c>
       <c r="G66" t="n">
         <v>2048</v>
@@ -2901,7 +2901,7 @@
         <v>60</v>
       </c>
       <c r="F67" t="n">
-        <v>0.003392934799194336</v>
+        <v>0.002880096435546875</v>
       </c>
       <c r="G67" t="n">
         <v>162</v>
@@ -2938,7 +2938,7 @@
         <v>82</v>
       </c>
       <c r="F68" t="n">
-        <v>0.00480341911315918</v>
+        <v>0.004563093185424805</v>
       </c>
       <c r="G68" t="n">
         <v>198</v>
@@ -2975,7 +2975,7 @@
         <v>48</v>
       </c>
       <c r="F69" t="n">
-        <v>0.002576828002929688</v>
+        <v>0.001688003540039062</v>
       </c>
       <c r="G69" t="n">
         <v>54</v>
@@ -3012,7 +3012,7 @@
         <v>45</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0307157039642334</v>
+        <v>0.01869916915893555</v>
       </c>
       <c r="G70" t="n">
         <v>1072</v>
@@ -3049,7 +3049,7 @@
         <v>17</v>
       </c>
       <c r="F71" t="n">
-        <v>0.001011133193969727</v>
+        <v>0.0009007453918457031</v>
       </c>
       <c r="G71" t="n">
         <v>193</v>
@@ -3086,7 +3086,7 @@
         <v>45</v>
       </c>
       <c r="F72" t="n">
-        <v>0.001912117004394531</v>
+        <v>0.001431465148925781</v>
       </c>
       <c r="G72" t="n">
         <v>27</v>
@@ -3123,7 +3123,7 @@
         <v>113</v>
       </c>
       <c r="F73" t="n">
-        <v>0.2820439338684082</v>
+        <v>0.2920467853546143</v>
       </c>
       <c r="G73" t="n">
         <v>900</v>
@@ -3160,7 +3160,7 @@
         <v>233</v>
       </c>
       <c r="F74" t="n">
-        <v>0.01581978797912598</v>
+        <v>0.01529097557067871</v>
       </c>
       <c r="G74" t="n">
         <v>236</v>
@@ -3197,7 +3197,7 @@
         <v>16</v>
       </c>
       <c r="F75" t="n">
-        <v>0.09607291221618652</v>
+        <v>0.07803726196289062</v>
       </c>
       <c r="G75" t="n">
         <v>3134</v>
@@ -3234,7 +3234,7 @@
         <v>14</v>
       </c>
       <c r="F76" t="n">
-        <v>0.009660005569458008</v>
+        <v>0.006021976470947266</v>
       </c>
       <c r="G76" t="n">
         <v>1005</v>
@@ -3271,7 +3271,7 @@
         <v>100</v>
       </c>
       <c r="F77" t="n">
-        <v>0.05750513076782227</v>
+        <v>0.0432136058807373</v>
       </c>
       <c r="G77" t="n">
         <v>1104</v>
@@ -3308,7 +3308,7 @@
         <v>105</v>
       </c>
       <c r="F78" t="n">
-        <v>0.07469725608825684</v>
+        <v>0.05826950073242188</v>
       </c>
       <c r="G78" t="n">
         <v>1242</v>
@@ -3345,7 +3345,7 @@
         <v>61</v>
       </c>
       <c r="F79" t="n">
-        <v>0.0301671028137207</v>
+        <v>0.02137970924377441</v>
       </c>
       <c r="G79" t="n">
         <v>1007</v>
@@ -3382,7 +3382,7 @@
         <v>48</v>
       </c>
       <c r="F80" t="n">
-        <v>0.005911111831665039</v>
+        <v>0.0024566650390625</v>
       </c>
       <c r="G80" t="n">
         <v>245</v>
